--- a/data/HR1_2/Location1/Location1_base.xlsx
+++ b/data/HR1_2/Location1/Location1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A54755-42F7-4AE6-945C-947513C3747C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB936BBA-A477-490C-85E7-CBF3770D8FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" tabRatio="733" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" tabRatio="733" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="12" r:id="rId1"/>
@@ -69,6 +69,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,13 +102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +393,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,15 +414,15 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.2500000000000001E-2</v>
+      <c r="B2" s="4">
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -426,20 +430,21 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.5000000000000001E-2</v>
+      <c r="B4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.01</v>
+      <c r="B5" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4904,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD392CF4-C6B4-4972-944A-56A4C10F2805}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8874,99 +8879,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B2)</f>
         <v>0.11010665900000001</v>
       </c>
       <c r="C2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C2)</f>
         <v>4.7271840000000002E-2</v>
       </c>
       <c r="D2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D2)</f>
         <v>0.10204936862500001</v>
       </c>
       <c r="E2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E2)</f>
         <v>3.8146954375E-2</v>
       </c>
       <c r="F2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F2)</f>
         <v>3.6319698875E-2</v>
       </c>
       <c r="G2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G2)</f>
         <v>7.8773858250000009E-2</v>
       </c>
       <c r="H2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H2)</f>
         <v>7.8004290375000007E-2</v>
       </c>
       <c r="I2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I2)</f>
         <v>0.11961910950000001</v>
       </c>
       <c r="J2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J2)</f>
         <v>4.2599752250000004E-2</v>
       </c>
       <c r="K2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K2)</f>
         <v>0.12102044687500002</v>
       </c>
       <c r="L2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L2)</f>
         <v>2.6039849500000004E-2</v>
       </c>
       <c r="M2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M2)</f>
         <v>8.1569937000000009E-2</v>
       </c>
       <c r="N2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N2)</f>
         <v>3.5692023375000007E-2</v>
       </c>
       <c r="O2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O2)</f>
         <v>8.3742984875000009E-2</v>
       </c>
       <c r="P2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P2)</f>
         <v>0.16652585200000003</v>
       </c>
       <c r="Q2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q2)</f>
         <v>4.7366198125000002E-2</v>
       </c>
       <c r="R2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R2)</f>
         <v>1.0677589500000001E-2</v>
       </c>
       <c r="S2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S2)</f>
         <v>0.170647512375</v>
       </c>
       <c r="T2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T2)</f>
         <v>0.153692721</v>
       </c>
       <c r="U2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U2)</f>
         <v>3.0661301250000002E-2</v>
       </c>
       <c r="V2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V2)</f>
         <v>0.13629237650000001</v>
       </c>
       <c r="W2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W2)</f>
         <v>0.10352333875</v>
       </c>
       <c r="X2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X2)</f>
         <v>7.6100967125000002E-2</v>
       </c>
       <c r="Y2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y2)</f>
         <v>2.7304616625E-2</v>
       </c>
     </row>
@@ -8975,99 +8980,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B3)</f>
         <v>0.92036945275000004</v>
       </c>
       <c r="C3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C3)</f>
         <v>0.85847303687499998</v>
       </c>
       <c r="D3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D3)</f>
         <v>0.81342958449999991</v>
       </c>
       <c r="E3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E3)</f>
         <v>0.80767411749999996</v>
       </c>
       <c r="F3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F3)</f>
         <v>0.81741650112500008</v>
       </c>
       <c r="G3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G3)</f>
         <v>0.89851722712500015</v>
       </c>
       <c r="H3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H3)</f>
         <v>1.072150022375</v>
       </c>
       <c r="I3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I3)</f>
         <v>1.2905417521250002</v>
       </c>
       <c r="J3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J3)</f>
         <v>1.4050492886250001</v>
       </c>
       <c r="K3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K3)</f>
         <v>1.4225700140000002</v>
       </c>
       <c r="L3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L3)</f>
         <v>1.3841796160000002</v>
       </c>
       <c r="M3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M3)</f>
         <v>1.3913138627500001</v>
       </c>
       <c r="N3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N3)</f>
         <v>1.3901705200000001</v>
       </c>
       <c r="O3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O3)</f>
         <v>1.36746978</v>
       </c>
       <c r="P3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P3)</f>
         <v>1.2895382882500002</v>
       </c>
       <c r="Q3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q3)</f>
         <v>1.252592539875</v>
       </c>
       <c r="R3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R3)</f>
         <v>1.3045113972500002</v>
       </c>
       <c r="S3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S3)</f>
         <v>1.4460753781250002</v>
       </c>
       <c r="T3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T3)</f>
         <v>1.44083337775</v>
       </c>
       <c r="U3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U3)</f>
         <v>1.4110029458750002</v>
       </c>
       <c r="V3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V3)</f>
         <v>1.3867373466249999</v>
       </c>
       <c r="W3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W3)</f>
         <v>1.2997458861250002</v>
       </c>
       <c r="X3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X3)</f>
         <v>1.1370358230000002</v>
       </c>
       <c r="Y3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y3)</f>
         <v>1.0315801143750001</v>
       </c>
     </row>
@@ -9076,99 +9081,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B4)</f>
         <v>0.98532199862500003</v>
       </c>
       <c r="C4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C4)</f>
         <v>0.91561193462500001</v>
       </c>
       <c r="D4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D4)</f>
         <v>0.82858543400000007</v>
       </c>
       <c r="E4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E4)</f>
         <v>0.89119119637500011</v>
       </c>
       <c r="F4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F4)</f>
         <v>0.88808307637500006</v>
       </c>
       <c r="G4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G4)</f>
         <v>0.9258239746250001</v>
       </c>
       <c r="H4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H4)</f>
         <v>1.37783021925</v>
       </c>
       <c r="I4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I4)</f>
         <v>1.534567069875</v>
       </c>
       <c r="J4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J4)</f>
         <v>1.6824234963750002</v>
       </c>
       <c r="K4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K4)</f>
         <v>1.6833114626249999</v>
       </c>
       <c r="L4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L4)</f>
         <v>1.5900687218750003</v>
       </c>
       <c r="M4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M4)</f>
         <v>1.7397013665000001</v>
       </c>
       <c r="N4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N4)</f>
         <v>1.6406864167500002</v>
       </c>
       <c r="O4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O4)</f>
         <v>1.53589916225</v>
       </c>
       <c r="P4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P4)</f>
         <v>1.4892777442499998</v>
       </c>
       <c r="Q4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q4)</f>
         <v>1.3915946960000003</v>
       </c>
       <c r="R4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R4)</f>
         <v>1.3924827575000001</v>
       </c>
       <c r="S4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S4)</f>
         <v>1.474181366</v>
       </c>
       <c r="T4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T4)</f>
         <v>1.474181366</v>
       </c>
       <c r="U4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U4)</f>
         <v>1.496381759625</v>
       </c>
       <c r="V4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V4)</f>
         <v>1.4559764861250002</v>
       </c>
       <c r="W4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W4)</f>
         <v>1.315668106125</v>
       </c>
       <c r="X4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X4)</f>
         <v>1.11275405875</v>
       </c>
       <c r="Y4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y4)</f>
         <v>1.0767888069999998</v>
       </c>
     </row>
@@ -9177,99 +9182,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B5)</f>
         <v>3.0792882440000002</v>
       </c>
       <c r="C5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C5)</f>
         <v>2.7093571303749999</v>
       </c>
       <c r="D5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D5)</f>
         <v>2.5507345317500003</v>
       </c>
       <c r="E5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E5)</f>
         <v>2.5204433559999999</v>
       </c>
       <c r="F5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F5)</f>
         <v>2.6381569148750001</v>
       </c>
       <c r="G5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G5)</f>
         <v>2.8484279153750007</v>
       </c>
       <c r="H5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H5)</f>
         <v>3.437126624749999</v>
       </c>
       <c r="I5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I5)</f>
         <v>3.8424862147500001</v>
       </c>
       <c r="J5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J5)</f>
         <v>4.0669221997500005</v>
       </c>
       <c r="K5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K5)</f>
         <v>4.2052755353750007</v>
       </c>
       <c r="L5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L5)</f>
         <v>4.2437519308749998</v>
       </c>
       <c r="M5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M5)</f>
         <v>4.1994880913750006</v>
       </c>
       <c r="N5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N5)</f>
         <v>4.1756593229999996</v>
       </c>
       <c r="O5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O5)</f>
         <v>4.0895488738749997</v>
       </c>
       <c r="P5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P5)</f>
         <v>3.9593713163749999</v>
       </c>
       <c r="Q5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q5)</f>
         <v>3.8876803516250003</v>
       </c>
       <c r="R5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R5)</f>
         <v>4.0264680268750004</v>
       </c>
       <c r="S5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S5)</f>
         <v>4.5585321665</v>
       </c>
       <c r="T5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T5)</f>
         <v>4.6479667186249998</v>
       </c>
       <c r="U5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U5)</f>
         <v>4.6755714655000009</v>
       </c>
       <c r="V5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V5)</f>
         <v>4.5365342857500002</v>
       </c>
       <c r="W5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W5)</f>
         <v>4.3291617868749999</v>
       </c>
       <c r="X5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X5)</f>
         <v>3.9475620390000006</v>
       </c>
       <c r="Y5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y5)</f>
         <v>3.4892772081250003</v>
       </c>
     </row>
@@ -9278,100 +9283,100 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B6</f>
-        <v>-0.25227502562499993</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B6)</f>
+        <v>0.25227502562499993</v>
       </c>
       <c r="C6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C6</f>
-        <v>-0.31786177112500003</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C6)</f>
+        <v>0.31786177112500003</v>
       </c>
       <c r="D6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D6</f>
-        <v>-0.35532370800000002</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D6)</f>
+        <v>0.35532370800000002</v>
       </c>
       <c r="E6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E6</f>
-        <v>-0.3519399285</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E6)</f>
+        <v>0.3519399285</v>
       </c>
       <c r="F6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F6</f>
-        <v>-0.33871238212499999</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F6)</f>
+        <v>0.33871238212499999</v>
       </c>
       <c r="G6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G6)</f>
         <v>0.71819010925000004</v>
       </c>
       <c r="H6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H6)</f>
         <v>0.87873753899999996</v>
       </c>
       <c r="I6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I6)</f>
         <v>1.0505555717500001</v>
       </c>
       <c r="J6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J6)</f>
         <v>0.69041282174999996</v>
       </c>
       <c r="K6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K6)</f>
         <v>0.22494544962499999</v>
       </c>
       <c r="L6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L6)</f>
         <v>0.14406628587499998</v>
       </c>
       <c r="M6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M6)</f>
         <v>0.13899059275</v>
       </c>
       <c r="N6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N6)</f>
         <v>0.15006481387500001</v>
       </c>
       <c r="O6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O6)</f>
         <v>8.5665011250000062E-2</v>
       </c>
       <c r="P6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P6)</f>
         <v>5.7607161750000024E-2</v>
       </c>
       <c r="Q6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q6)</f>
         <v>5.8451053749999371E-3</v>
       </c>
       <c r="R6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R6)</f>
         <v>4.1295288749999774E-3</v>
       </c>
       <c r="S6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S6)</f>
         <v>0.15517803399999996</v>
       </c>
       <c r="T6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T6)</f>
         <v>0.14328621599999991</v>
       </c>
       <c r="U6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U6)</f>
         <v>0.15497566425000003</v>
       </c>
       <c r="V6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V6)</f>
         <v>0.15512946799999999</v>
       </c>
       <c r="W6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W6)</f>
         <v>0.15159188475000002</v>
       </c>
       <c r="X6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X6)</f>
         <v>0.11811190812499994</v>
       </c>
       <c r="Y6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y6</f>
-        <v>-8.3288312000000045E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y6)</f>
+        <v>8.3288312000000045E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -9379,99 +9384,99 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B7)</f>
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C7)</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G7)</f>
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J7)</f>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M7)</f>
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N7)</f>
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P7)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R7)</f>
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S7)</f>
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T7)</f>
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U7)</f>
         <v>0</v>
       </c>
       <c r="V7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V7)</f>
         <v>0</v>
       </c>
       <c r="W7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W7)</f>
         <v>0</v>
       </c>
       <c r="X7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X7)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y7)</f>
         <v>0</v>
       </c>
     </row>
@@ -9480,99 +9485,99 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B8)</f>
         <v>1.2642087937499999</v>
       </c>
       <c r="C8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C8)</f>
         <v>1.3448970796250002</v>
       </c>
       <c r="D8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D8)</f>
         <v>1.412265586875</v>
       </c>
       <c r="E8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E8)</f>
         <v>1.592504406125</v>
       </c>
       <c r="F8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F8)</f>
         <v>1.6870986940000003</v>
       </c>
       <c r="G8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G8)</f>
         <v>1.0360691071250001</v>
       </c>
       <c r="H8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H8)</f>
         <v>0.33318157187500003</v>
       </c>
       <c r="I8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I8</f>
-        <v>-0.99516754150000009</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I8)</f>
+        <v>0.99516754150000009</v>
       </c>
       <c r="J8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J8</f>
-        <v>-1.6977924346250004</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J8)</f>
+        <v>1.6977924346250004</v>
       </c>
       <c r="K8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K8</f>
-        <v>-1.2328057287500003</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K8)</f>
+        <v>1.2328057287500003</v>
       </c>
       <c r="L8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L8</f>
-        <v>-0.58069572437499983</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L8)</f>
+        <v>0.58069572437499983</v>
       </c>
       <c r="M8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M8</f>
-        <v>-0.44012994750000001</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M8)</f>
+        <v>0.44012994750000001</v>
       </c>
       <c r="N8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N8</f>
-        <v>-0.95554857262499981</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N8)</f>
+        <v>0.95554857262499981</v>
       </c>
       <c r="O8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O8</f>
-        <v>-0.38937177649999999</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O8)</f>
+        <v>0.38937177649999999</v>
       </c>
       <c r="P8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P8</f>
-        <v>-0.44793472275000001</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P8)</f>
+        <v>0.44793472275000001</v>
       </c>
       <c r="Q8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q8</f>
-        <v>-0.54618597025000004</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q8)</f>
+        <v>0.54618597025000004</v>
       </c>
       <c r="R8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R8</f>
-        <v>-0.73682556125000009</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R8)</f>
+        <v>0.73682556125000009</v>
       </c>
       <c r="S8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S8</f>
-        <v>-1.0962503431249999</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S8)</f>
+        <v>1.0962503431249999</v>
       </c>
       <c r="T8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T8</f>
-        <v>-1.1611412048750001</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T8)</f>
+        <v>1.1611412048750001</v>
       </c>
       <c r="U8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U8</f>
-        <v>-1.2492631913750003</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U8)</f>
+        <v>1.2492631913750003</v>
       </c>
       <c r="V8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V8</f>
-        <v>-1.2490198137500004</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V8)</f>
+        <v>1.2490198137500004</v>
       </c>
       <c r="W8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W8</f>
-        <v>-0.71617908474999992</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W8)</f>
+        <v>0.71617908474999992</v>
       </c>
       <c r="X8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X8)</f>
         <v>0.25351104725000012</v>
       </c>
       <c r="Y8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y8)</f>
         <v>1.1216148377499999</v>
       </c>
     </row>
@@ -9581,99 +9586,99 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B9)</f>
         <v>1.3842130661250001</v>
       </c>
       <c r="C9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C9)</f>
         <v>1.275433826625</v>
       </c>
       <c r="D9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D9)</f>
         <v>1.2163155081250001</v>
       </c>
       <c r="E9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E9)</f>
         <v>1.1915225985</v>
       </c>
       <c r="F9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F9)</f>
         <v>1.175179767625</v>
       </c>
       <c r="G9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G9)</f>
         <v>1.2457461358749999</v>
       </c>
       <c r="H9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H9)</f>
         <v>1.551825762</v>
       </c>
       <c r="I9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I9)</f>
         <v>1.7658265115</v>
       </c>
       <c r="J9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J9)</f>
         <v>2.1070416451250003</v>
       </c>
       <c r="K9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K9)</f>
         <v>2.267346382375</v>
       </c>
       <c r="L9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L9)</f>
         <v>2.2683042527500001</v>
       </c>
       <c r="M9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M9)</f>
         <v>2.3095149040000003</v>
       </c>
       <c r="N9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N9)</f>
         <v>2.2329436778750003</v>
       </c>
       <c r="O9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O9)</f>
         <v>2.1881078718750002</v>
       </c>
       <c r="P9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P9)</f>
         <v>2.1654352189999999</v>
       </c>
       <c r="Q9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q9)</f>
         <v>2.0864663125000003</v>
       </c>
       <c r="R9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R9)</f>
         <v>2.0940012931250003</v>
       </c>
       <c r="S9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S9)</f>
         <v>2.3412739276250001</v>
       </c>
       <c r="T9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T9)</f>
         <v>2.0314957143750001</v>
       </c>
       <c r="U9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U9)</f>
         <v>2.01777539275</v>
       </c>
       <c r="V9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V9)</f>
         <v>2.0237779142500001</v>
       </c>
       <c r="W9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W9)</f>
         <v>1.926790332875</v>
       </c>
       <c r="X9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X9)</f>
         <v>1.6722723961250001</v>
       </c>
       <c r="Y9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y9)</f>
         <v>1.4800371170000002</v>
       </c>
     </row>
@@ -9682,99 +9687,99 @@
         <v>12</v>
       </c>
       <c r="B10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B10)</f>
         <v>8.5340371512500024</v>
       </c>
       <c r="C10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C10)</f>
         <v>7.4770470697500002</v>
       </c>
       <c r="D10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D10)</f>
         <v>7.096566625374999</v>
       </c>
       <c r="E10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E10)</f>
         <v>6.9286992165000001</v>
       </c>
       <c r="F10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F10)</f>
         <v>6.8069819753750016</v>
       </c>
       <c r="G10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G10)</f>
         <v>7.7334740086250013</v>
       </c>
       <c r="H10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H10)</f>
         <v>10.633695440250001</v>
       </c>
       <c r="I10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I10)</f>
         <v>12.82786399575</v>
       </c>
       <c r="J10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J10)</f>
         <v>13.859841506499999</v>
       </c>
       <c r="K10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K10)</f>
         <v>13.70785358</v>
       </c>
       <c r="L10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L10)</f>
         <v>14.457595498500002</v>
       </c>
       <c r="M10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M10)</f>
         <v>14.820741487250002</v>
       </c>
       <c r="N10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N10)</f>
         <v>14.1833595855</v>
       </c>
       <c r="O10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O10)</f>
         <v>13.958067056125001</v>
       </c>
       <c r="P10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P10)</f>
         <v>13.038500918</v>
       </c>
       <c r="Q10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q10)</f>
         <v>12.578958597875001</v>
       </c>
       <c r="R10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R10)</f>
         <v>13.037761322125</v>
       </c>
       <c r="S10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S10)</f>
         <v>15.311829240625002</v>
       </c>
       <c r="T10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T10)</f>
         <v>15.251688671750001</v>
       </c>
       <c r="U10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U10)</f>
         <v>15.242378543125</v>
       </c>
       <c r="V10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V10)</f>
         <v>15.179253712</v>
       </c>
       <c r="W10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W10)</f>
         <v>14.310201896500002</v>
       </c>
       <c r="X10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X10)</f>
         <v>12.439281112375001</v>
       </c>
       <c r="Y10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y10)</f>
         <v>10.62047176525</v>
       </c>
     </row>
@@ -9783,99 +9788,99 @@
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B11)</f>
         <v>0.185179758</v>
       </c>
       <c r="C11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C11)</f>
         <v>0.18106026650000001</v>
       </c>
       <c r="D11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D11)</f>
         <v>0.173235798</v>
       </c>
       <c r="E11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E11)</f>
         <v>0.17540516850000001</v>
       </c>
       <c r="F11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F11)</f>
         <v>0.17447891250000003</v>
       </c>
       <c r="G11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G11)</f>
         <v>0.18552093512500001</v>
       </c>
       <c r="H11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H11)</f>
         <v>0.23539295200000004</v>
       </c>
       <c r="I11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I11)</f>
         <v>0.26722717287500003</v>
       </c>
       <c r="J11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J11)</f>
         <v>0.28680057537500003</v>
       </c>
       <c r="K11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K11)</f>
         <v>0.29884190575000003</v>
       </c>
       <c r="L11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L11)</f>
         <v>0.27858610162500003</v>
       </c>
       <c r="M11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M11)</f>
         <v>0.28772692687500001</v>
       </c>
       <c r="N11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N11)</f>
         <v>0.283924436625</v>
       </c>
       <c r="O11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O11)</f>
         <v>0.27319922450000006</v>
       </c>
       <c r="P11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P11)</f>
         <v>0.25928082462500002</v>
       </c>
       <c r="Q11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q11)</f>
         <v>0.24297370912499999</v>
       </c>
       <c r="R11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R11)</f>
         <v>0.24424123762500002</v>
       </c>
       <c r="S11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S11)</f>
         <v>0.27612419112500003</v>
       </c>
       <c r="T11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T11)</f>
         <v>0.27736735337500001</v>
       </c>
       <c r="U11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U11)</f>
         <v>0.28365621562499999</v>
       </c>
       <c r="V11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V11)</f>
         <v>0.274807977875</v>
       </c>
       <c r="W11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W11)</f>
         <v>0.26656904212500004</v>
       </c>
       <c r="X11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X11)</f>
         <v>0.23351597799999999</v>
       </c>
       <c r="Y11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y11)</f>
         <v>0.20662999150000003</v>
       </c>
     </row>
@@ -9884,99 +9889,99 @@
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B12)</f>
         <v>1.3226500000000001</v>
       </c>
       <c r="C12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C12)</f>
         <v>1.2824500000000001</v>
       </c>
       <c r="D12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D12)</f>
         <v>1.2712500000000002</v>
       </c>
       <c r="E12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E12)</f>
         <v>1.2799500000000001</v>
       </c>
       <c r="F12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F12)</f>
         <v>1.3443000000000001</v>
       </c>
       <c r="G12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G12)</f>
         <v>1.5362500000000001</v>
       </c>
       <c r="H12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H12)</f>
         <v>2.07185</v>
       </c>
       <c r="I12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I12)</f>
         <v>2.4237000000000002</v>
       </c>
       <c r="J12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J12)</f>
         <v>2.50535</v>
       </c>
       <c r="K12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K12)</f>
         <v>2.3428</v>
       </c>
       <c r="L12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L12)</f>
         <v>2.3673500000000001</v>
       </c>
       <c r="M12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M12)</f>
         <v>2.3739500000000002</v>
       </c>
       <c r="N12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N12)</f>
         <v>2.2328999999999999</v>
       </c>
       <c r="O12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O12)</f>
         <v>2.2453499999999997</v>
       </c>
       <c r="P12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P12)</f>
         <v>2.1008000000000004</v>
       </c>
       <c r="Q12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q12)</f>
         <v>2.0702500000000001</v>
       </c>
       <c r="R12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R12)</f>
         <v>2.1122000000000001</v>
       </c>
       <c r="S12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S12)</f>
         <v>2.2300999999999997</v>
       </c>
       <c r="T12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T12)</f>
         <v>2.1915500000000003</v>
       </c>
       <c r="U12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U12)</f>
         <v>2.1452999999999998</v>
       </c>
       <c r="V12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V12)</f>
         <v>2.0925500000000001</v>
       </c>
       <c r="W12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W12)</f>
         <v>1.87</v>
       </c>
       <c r="X12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X12)</f>
         <v>1.6447000000000001</v>
       </c>
       <c r="Y12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y12)</f>
         <v>1.4314499999999999</v>
       </c>
     </row>
@@ -9985,99 +9990,99 @@
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B13)</f>
         <v>0.33688823287500003</v>
       </c>
       <c r="C13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C13)</f>
         <v>0.32682740087500006</v>
       </c>
       <c r="D13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D13)</f>
         <v>0.288530744625</v>
       </c>
       <c r="E13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E13)</f>
         <v>0.30297493775000001</v>
       </c>
       <c r="F13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F13)</f>
         <v>0.31169660400000004</v>
       </c>
       <c r="G13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G13)</f>
         <v>0.35333536250000003</v>
       </c>
       <c r="H13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H13)</f>
         <v>0.40623136162500001</v>
       </c>
       <c r="I13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I13)</f>
         <v>0.48769285100000004</v>
       </c>
       <c r="J13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J13)</f>
         <v>0.4877426505000001</v>
       </c>
       <c r="K13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K13)</f>
         <v>0.50467630337500002</v>
       </c>
       <c r="L13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L13)</f>
         <v>0.44337384400000002</v>
       </c>
       <c r="M13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M13)</f>
         <v>0.46346600950000011</v>
       </c>
       <c r="N13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N13)</f>
         <v>0.43560786237500004</v>
       </c>
       <c r="O13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O13)</f>
         <v>0.41616838574999993</v>
       </c>
       <c r="P13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P13)</f>
         <v>0.42856787437500005</v>
       </c>
       <c r="Q13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q13)</f>
         <v>0.44608207337500005</v>
       </c>
       <c r="R13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R13)</f>
         <v>0.49740697437500003</v>
       </c>
       <c r="S13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S13)</f>
         <v>0.52677780374999994</v>
       </c>
       <c r="T13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T13)</f>
         <v>0.50027740600000004</v>
       </c>
       <c r="U13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U13)</f>
         <v>0.53392657037500002</v>
       </c>
       <c r="V13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V13)</f>
         <v>0.53437045812500006</v>
       </c>
       <c r="W13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W13)</f>
         <v>0.46498701862500003</v>
       </c>
       <c r="X13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X13)</f>
         <v>0.39595960687499998</v>
       </c>
       <c r="Y13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y13)</f>
         <v>0.38953051275000006</v>
       </c>
     </row>
@@ -10086,99 +10091,99 @@
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B14)</f>
         <v>2.9940769000000002E-2</v>
       </c>
       <c r="C14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C14)</f>
         <v>2.9940769000000002E-2</v>
       </c>
       <c r="D14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D14)</f>
         <v>2.9940769000000002E-2</v>
       </c>
       <c r="E14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E14)</f>
         <v>2.9940769000000002E-2</v>
       </c>
       <c r="F14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F14)</f>
         <v>3.2523640999999992E-2</v>
       </c>
       <c r="G14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G14)</f>
         <v>2.9205968999999998E-2</v>
       </c>
       <c r="H14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H14)</f>
         <v>4.7830277750000011E-2</v>
       </c>
       <c r="I14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I14)</f>
         <v>5.0363356000000005E-2</v>
       </c>
       <c r="J14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J14)</f>
         <v>5.0363356000000005E-2</v>
       </c>
       <c r="K14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K14)</f>
         <v>5.9433514000000014E-2</v>
       </c>
       <c r="L14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L14)</f>
         <v>7.4420593625000003E-2</v>
       </c>
       <c r="M14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M14)</f>
         <v>6.7533203999999999E-2</v>
       </c>
       <c r="N14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N14)</f>
         <v>7.5540924000000009E-2</v>
       </c>
       <c r="O14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O14)</f>
         <v>7.5803051750000003E-2</v>
       </c>
       <c r="P14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P14)</f>
         <v>7.0939083250000021E-2</v>
       </c>
       <c r="Q14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q14)</f>
         <v>6.9697569250000022E-2</v>
       </c>
       <c r="R14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R14)</f>
         <v>7.4751415625000012E-2</v>
       </c>
       <c r="S14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S14)</f>
         <v>7.7464771000000002E-2</v>
       </c>
       <c r="T14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T14)</f>
         <v>7.7464771000000002E-2</v>
       </c>
       <c r="U14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U14)</f>
         <v>7.7464771000000002E-2</v>
       </c>
       <c r="V14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V14)</f>
         <v>7.7464771000000002E-2</v>
       </c>
       <c r="W14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W14)</f>
         <v>5.1930424625000006E-2</v>
       </c>
       <c r="X14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X14)</f>
         <v>4.0823289750000005E-2</v>
       </c>
       <c r="Y14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y14)</f>
         <v>3.3313596000000001E-2</v>
       </c>
     </row>
@@ -10187,99 +10192,99 @@
         <v>20</v>
       </c>
       <c r="B15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B15)</f>
         <v>0.19045515050000003</v>
       </c>
       <c r="C15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C15)</f>
         <v>0.1904551505</v>
       </c>
       <c r="D15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D15)</f>
         <v>0.19045515050000003</v>
       </c>
       <c r="E15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E15)</f>
         <v>0.18771133400000001</v>
       </c>
       <c r="F15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F15)</f>
         <v>0.20966186549999999</v>
       </c>
       <c r="G15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G15)</f>
         <v>0.19621706024999999</v>
       </c>
       <c r="H15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H15)</f>
         <v>0.19923529625</v>
       </c>
       <c r="I15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I15)</f>
         <v>0.16576085075000002</v>
       </c>
       <c r="J15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J15)</f>
         <v>0.141889572125</v>
       </c>
       <c r="K15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K15)</f>
         <v>0.12405471800000001</v>
       </c>
       <c r="L15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L15)</f>
         <v>0.1492979525</v>
       </c>
       <c r="M15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M15)</f>
         <v>0.16905345900000002</v>
       </c>
       <c r="N15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N15)</f>
         <v>0.18551630962500001</v>
       </c>
       <c r="O15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O15)</f>
         <v>0.20197925550000001</v>
       </c>
       <c r="P15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P15)</f>
         <v>0.19649157512500001</v>
       </c>
       <c r="Q15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q15)</f>
         <v>0.17179722775</v>
       </c>
       <c r="R15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R15)</f>
         <v>0.17454099650000002</v>
       </c>
       <c r="S15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S15)</f>
         <v>0.188260126</v>
       </c>
       <c r="T15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T15)</f>
         <v>0.19100399000000001</v>
       </c>
       <c r="U15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U15)</f>
         <v>0.18551626200000002</v>
       </c>
       <c r="V15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V15)</f>
         <v>0.18880877500000001</v>
       </c>
       <c r="W15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W15)</f>
         <v>0.21514949799999999</v>
       </c>
       <c r="X15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X15)</f>
         <v>0.2041742325</v>
       </c>
       <c r="Y15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y15)</f>
         <v>0.18496737500000004</v>
       </c>
     </row>
@@ -10288,99 +10293,99 @@
         <v>21</v>
       </c>
       <c r="B16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B16)</f>
         <v>0.30020775787500004</v>
       </c>
       <c r="C16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C16)</f>
         <v>0.27770853049999999</v>
       </c>
       <c r="D16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D16)</f>
         <v>0.26124572750000002</v>
       </c>
       <c r="E16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E16)</f>
         <v>0.25932497987500003</v>
       </c>
       <c r="F16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F16)</f>
         <v>0.25959935187500005</v>
       </c>
       <c r="G16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G16)</f>
         <v>0.29087886800000001</v>
       </c>
       <c r="H16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H16)</f>
         <v>0.4431606292500001</v>
       </c>
       <c r="I16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I16)</f>
         <v>0.54248681050000003</v>
       </c>
       <c r="J16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J16)</f>
         <v>0.57843079562499999</v>
       </c>
       <c r="K16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K16)</f>
         <v>0.58090023987499995</v>
       </c>
       <c r="L16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L16)</f>
         <v>0.55538268087500009</v>
       </c>
       <c r="M16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M16)</f>
         <v>0.58007707612500004</v>
       </c>
       <c r="N16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N16)</f>
         <v>0.58309526450000004</v>
       </c>
       <c r="O16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O16)</f>
         <v>0.57431502350000008</v>
       </c>
       <c r="P16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P16)</f>
         <v>0.51148171425</v>
       </c>
       <c r="Q16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q16)</f>
         <v>0.47855577475</v>
       </c>
       <c r="R16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R16)</f>
         <v>0.50599398612500002</v>
       </c>
       <c r="S16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S16)</f>
         <v>0.59022922512500009</v>
       </c>
       <c r="T16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T16)</f>
         <v>0.56251659387499997</v>
       </c>
       <c r="U16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U16)</f>
         <v>0.55483403200000003</v>
       </c>
       <c r="V16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V16)</f>
         <v>0.54111490250000005</v>
       </c>
       <c r="W16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W16)</f>
         <v>0.50434775349999994</v>
       </c>
       <c r="X16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X16)</f>
         <v>0.41764311787500008</v>
       </c>
       <c r="Y16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y16)</f>
         <v>0.36221804612499997</v>
       </c>
     </row>
@@ -10389,99 +10394,99 @@
         <v>26</v>
       </c>
       <c r="B17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B17)</f>
         <v>1.0661877157500002</v>
       </c>
       <c r="C17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C17)</f>
         <v>0.94897346537500005</v>
       </c>
       <c r="D17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D17)</f>
         <v>0.90395412450000012</v>
       </c>
       <c r="E17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E17)</f>
         <v>0.89280643474999999</v>
       </c>
       <c r="F17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F17)</f>
         <v>0.89280643474999999</v>
       </c>
       <c r="G17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G17)</f>
         <v>0.94511461287500009</v>
       </c>
       <c r="H17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H17)</f>
         <v>1.1785831927500003</v>
       </c>
       <c r="I17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I17)</f>
         <v>1.3478194711250002</v>
       </c>
       <c r="J17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J17)</f>
         <v>1.5054794787500001</v>
       </c>
       <c r="K17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K17)</f>
         <v>1.5410662173749987</v>
       </c>
       <c r="L17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L17)</f>
         <v>1.5359211444999978</v>
       </c>
       <c r="M17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M17)</f>
         <v>1.5359211444999976</v>
       </c>
       <c r="N17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N17)</f>
         <v>1.5067657946250002</v>
       </c>
       <c r="O17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O17)</f>
         <v>1.478467893375</v>
       </c>
       <c r="P17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P17)</f>
         <v>1.4373071670000002</v>
       </c>
       <c r="Q17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q17)</f>
         <v>1.4099329948750001</v>
       </c>
       <c r="R17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R17)</f>
         <v>1.3784037110000003</v>
       </c>
       <c r="S17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S17)</f>
         <v>1.475731372624999</v>
       </c>
       <c r="T17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T17)</f>
         <v>1.5509277343750003</v>
       </c>
       <c r="U17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U17)</f>
         <v>1.5504989625000001</v>
       </c>
       <c r="V17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V17)</f>
         <v>1.5500701905000001</v>
       </c>
       <c r="W17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W17)</f>
         <v>1.4760789392500002</v>
       </c>
       <c r="X17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X17)</f>
         <v>1.357007074125</v>
       </c>
       <c r="Y17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y17)</f>
         <v>1.2117912291250001</v>
       </c>
     </row>
@@ -10490,99 +10495,99 @@
         <v>30</v>
       </c>
       <c r="B18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B18)</f>
         <v>0.50347483162500006</v>
       </c>
       <c r="C18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C18)</f>
         <v>0.4712662458750001</v>
       </c>
       <c r="D18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D18)</f>
         <v>0.473163271</v>
       </c>
       <c r="E18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E18)</f>
         <v>0.47430931325000003</v>
       </c>
       <c r="F18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F18)</f>
         <v>0.483402860125</v>
       </c>
       <c r="G18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G18)</f>
         <v>0.5154629112500001</v>
       </c>
       <c r="H18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H18)</f>
         <v>0.66691132787500007</v>
       </c>
       <c r="I18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I18)</f>
         <v>0.75401415824999996</v>
       </c>
       <c r="J18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J18)</f>
         <v>0.78204156162500016</v>
       </c>
       <c r="K18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K18)</f>
         <v>0.75566241749999996</v>
       </c>
       <c r="L18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L18)</f>
         <v>0.75665708775000007</v>
       </c>
       <c r="M18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M18)</f>
         <v>0.79472231862499998</v>
       </c>
       <c r="N18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N18)</f>
         <v>0.78363454337499994</v>
       </c>
       <c r="O18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O18)</f>
         <v>0.78305708174999999</v>
       </c>
       <c r="P18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P18)</f>
         <v>0.75046927937500008</v>
       </c>
       <c r="Q18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q18)</f>
         <v>0.73703949462500007</v>
       </c>
       <c r="R18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R18)</f>
         <v>0.73669785250000008</v>
       </c>
       <c r="S18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S18)</f>
         <v>0.75458177324999998</v>
       </c>
       <c r="T18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T18)</f>
         <v>0.74088495975000002</v>
       </c>
       <c r="U18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U18)</f>
         <v>0.71675243387499998</v>
       </c>
       <c r="V18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V18)</f>
         <v>0.72039303787500009</v>
       </c>
       <c r="W18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W18)</f>
         <v>0.67711143500000004</v>
       </c>
       <c r="X18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X18)</f>
         <v>0.57489131687499995</v>
       </c>
       <c r="Y18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y18)</f>
         <v>0.54407416587500002</v>
       </c>
     </row>
@@ -10591,99 +10596,99 @@
         <v>35</v>
       </c>
       <c r="B19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B19)</f>
         <v>0.812282316</v>
       </c>
       <c r="C19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C19)</f>
         <v>0.76313231600000009</v>
       </c>
       <c r="D19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D19)</f>
         <v>0.72058231600000011</v>
       </c>
       <c r="E19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E19)</f>
         <v>0.71323231600000003</v>
       </c>
       <c r="F19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F19)</f>
         <v>0.72828231600000004</v>
       </c>
       <c r="G19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G19)</f>
         <v>0.86318231600000006</v>
       </c>
       <c r="H19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H19)</f>
         <v>1.2199323160000002</v>
       </c>
       <c r="I19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I19)</f>
         <v>1.4438323159999999</v>
       </c>
       <c r="J19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J19)</f>
         <v>1.4832323160000001</v>
       </c>
       <c r="K19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K19)</f>
         <v>1.5035323160000003</v>
       </c>
       <c r="L19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L19)</f>
         <v>1.3601823160000002</v>
       </c>
       <c r="M19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M19)</f>
         <v>1.446282316</v>
       </c>
       <c r="N19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N19)</f>
         <v>1.4028823160000001</v>
       </c>
       <c r="O19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O19)</f>
         <v>1.3366823160000001</v>
       </c>
       <c r="P19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P19)</f>
         <v>1.2306823160000002</v>
       </c>
       <c r="Q19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q19)</f>
         <v>1.2134823160000001</v>
       </c>
       <c r="R19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R19)</f>
         <v>1.274982316</v>
       </c>
       <c r="S19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S19)</f>
         <v>1.3850323160000002</v>
       </c>
       <c r="T19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T19)</f>
         <v>1.3380323160000001</v>
       </c>
       <c r="U19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U19)</f>
         <v>1.330032316</v>
       </c>
       <c r="V19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V19)</f>
         <v>1.309382316</v>
       </c>
       <c r="W19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W19)</f>
         <v>1.2192823160000001</v>
       </c>
       <c r="X19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X19)</f>
         <v>1.0434823160000002</v>
       </c>
       <c r="Y19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y19)</f>
         <v>0.92478231599999994</v>
       </c>
     </row>
@@ -10692,100 +10697,100 @@
         <v>36</v>
       </c>
       <c r="B20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B20)</f>
         <v>1.5000000000000001E-4</v>
       </c>
       <c r="C20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C20)</f>
         <v>9.3000000000000013E-2</v>
       </c>
       <c r="D20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D20</f>
-        <v>-1.7950000000000001E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D20)</f>
+        <v>1.7950000000000001E-2</v>
       </c>
       <c r="E20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E20</f>
-        <v>-2.2499999999999998E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E20)</f>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F20)</f>
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="G20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G20</f>
-        <v>-4.5999999999999999E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G20)</f>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="H20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H20)</f>
         <v>1.4500000000000001E-3</v>
       </c>
       <c r="I20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I20</f>
-        <v>-1.085E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I20)</f>
+        <v>1.085E-2</v>
       </c>
       <c r="J20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J20</f>
-        <v>-1.7850000000000001E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J20)</f>
+        <v>1.7850000000000001E-2</v>
       </c>
       <c r="K20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K20</f>
-        <v>-1.15E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K20)</f>
+        <v>1.15E-3</v>
       </c>
       <c r="L20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L20</f>
-        <v>-4.2000000000000006E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L20)</f>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="M20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M20)</f>
         <v>1.5950000000000002E-2</v>
       </c>
       <c r="N20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N20</f>
-        <v>-1.84E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N20)</f>
+        <v>1.84E-2</v>
       </c>
       <c r="O20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O20</f>
-        <v>-3.6249999999999998E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O20)</f>
+        <v>3.6249999999999998E-2</v>
       </c>
       <c r="P20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P20</f>
-        <v>-6.0499999999999998E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P20)</f>
+        <v>6.0499999999999998E-3</v>
       </c>
       <c r="Q20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q20</f>
-        <v>-8.4000000000000012E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q20)</f>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="R20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R20)</f>
         <v>1.72E-2</v>
       </c>
       <c r="S20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S20)</f>
         <v>1.5000000000000001E-4</v>
       </c>
       <c r="T20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T20</f>
-        <v>-9.4000000000000004E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T20)</f>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="U20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U20)</f>
         <v>1.8350000000000002E-2</v>
       </c>
       <c r="V20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V20</f>
-        <v>-5.850000000000001E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V20)</f>
+        <v>5.850000000000001E-3</v>
       </c>
       <c r="W20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W20)</f>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="X20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X20</f>
-        <v>-3.5000000000000005E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X20)</f>
+        <v>3.5000000000000005E-3</v>
       </c>
       <c r="Y20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y20</f>
-        <v>-7.5500000000000003E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y20)</f>
+        <v>7.5500000000000003E-3</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -10793,99 +10798,99 @@
         <v>42</v>
       </c>
       <c r="B21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B21)</f>
         <v>0.70854492200000008</v>
       </c>
       <c r="C21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C21)</f>
         <v>0.64968400012500016</v>
       </c>
       <c r="D21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D21)</f>
         <v>0.61807346337500002</v>
       </c>
       <c r="E21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E21)</f>
         <v>0.61480336175000005</v>
       </c>
       <c r="F21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F21)</f>
         <v>0.63714876175000001</v>
       </c>
       <c r="G21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G21)</f>
         <v>0.68837957387500004</v>
       </c>
       <c r="H21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H21)</f>
         <v>0.89384765625000007</v>
       </c>
       <c r="I21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I21)</f>
         <v>1.0279197692500002</v>
       </c>
       <c r="J21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J21)</f>
         <v>1.0764253616250001</v>
       </c>
       <c r="K21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K21)</f>
         <v>1.09223079675</v>
       </c>
       <c r="L21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L21)</f>
         <v>1.0704305647500001</v>
       </c>
       <c r="M21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M21)</f>
         <v>1.0993158340000002</v>
       </c>
       <c r="N21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N21)</f>
         <v>1.0846006392500003</v>
       </c>
       <c r="O21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O21)</f>
         <v>1.0246496199999999</v>
       </c>
       <c r="P21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P21)</f>
         <v>0.99085922250000003</v>
       </c>
       <c r="Q21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q21)</f>
         <v>0.92927322387499989</v>
       </c>
       <c r="R21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R21)</f>
         <v>0.94126343724999995</v>
       </c>
       <c r="S21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S21)</f>
         <v>1.1042207717499999</v>
       </c>
       <c r="T21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T21)</f>
         <v>1.114031124125</v>
       </c>
       <c r="U21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U21)</f>
         <v>1.12329635625</v>
       </c>
       <c r="V21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V21)</f>
         <v>1.090050792625</v>
       </c>
       <c r="W21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W21)</f>
         <v>1.0442700385000001</v>
       </c>
       <c r="X21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X21)</f>
         <v>0.93526840212500018</v>
       </c>
       <c r="Y21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y21)</f>
         <v>0.80283141137500003</v>
       </c>
     </row>
@@ -10894,99 +10899,99 @@
         <v>55</v>
       </c>
       <c r="B22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="C22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="D22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="E22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="F22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="G22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="H22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H22)</f>
         <v>0.19532728187500001</v>
       </c>
       <c r="I22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I22)</f>
         <v>0.26752405150000003</v>
       </c>
       <c r="J22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J22)</f>
         <v>0.27977881425000001</v>
       </c>
       <c r="K22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="L22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="M22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="N22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="O22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="P22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P22)</f>
         <v>0.27405104637500005</v>
       </c>
       <c r="Q22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q22)</f>
         <v>0.26805686950000002</v>
       </c>
       <c r="R22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R22)</f>
         <v>0.26805686950000002</v>
       </c>
       <c r="S22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S22)</f>
         <v>0.28643901325000004</v>
       </c>
       <c r="T22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T22)</f>
         <v>0.29256639450000005</v>
       </c>
       <c r="U22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U22)</f>
         <v>0.29256639450000005</v>
       </c>
       <c r="V22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V22)</f>
         <v>0.29256639450000005</v>
       </c>
       <c r="W22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W22)</f>
         <v>0.28657221762500001</v>
       </c>
       <c r="X22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X22)</f>
         <v>0.22663028225000004</v>
       </c>
       <c r="Y22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y22)</f>
         <v>0.19665927900000002</v>
       </c>
     </row>
@@ -10995,99 +11000,99 @@
         <v>68</v>
       </c>
       <c r="B23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B23)</f>
         <v>0.28260931962500002</v>
       </c>
       <c r="C23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C23)</f>
         <v>0.27046856862500002</v>
       </c>
       <c r="D23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D23)</f>
         <v>0.25958385449999999</v>
       </c>
       <c r="E23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E23)</f>
         <v>0.28637704850000001</v>
       </c>
       <c r="F23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F23)</f>
         <v>0.27632966050000002</v>
       </c>
       <c r="G23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G23)</f>
         <v>0.27632966050000002</v>
       </c>
       <c r="H23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H23)</f>
         <v>0.30982093800000005</v>
       </c>
       <c r="I23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I23)</f>
         <v>0.32656674362500004</v>
       </c>
       <c r="J23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J23)</f>
         <v>0.31651935550000004</v>
       </c>
       <c r="K23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K23)</f>
         <v>0.34331235875000005</v>
       </c>
       <c r="L23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L23)</f>
         <v>0.34833607662500005</v>
       </c>
       <c r="M23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M23)</f>
         <v>0.34080057125000002</v>
       </c>
       <c r="N23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N23)</f>
         <v>0.33493947974999999</v>
       </c>
       <c r="O23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O23)</f>
         <v>0.33159036625000005</v>
       </c>
       <c r="P23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P23)</f>
         <v>0.32991580950000005</v>
       </c>
       <c r="Q23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q23)</f>
         <v>0.29851779937500006</v>
       </c>
       <c r="R23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R23)</f>
         <v>0.31735653862500002</v>
       </c>
       <c r="S23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S23)</f>
         <v>0.32656650549999999</v>
       </c>
       <c r="T23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T23)</f>
         <v>0.29516849537500001</v>
       </c>
       <c r="U23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U23)</f>
         <v>0.32656650549999999</v>
       </c>
       <c r="V23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V23)</f>
         <v>0.30563449875000004</v>
       </c>
       <c r="W23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W23)</f>
         <v>0.28470249200000003</v>
       </c>
       <c r="X23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X23)</f>
         <v>0.28470249200000003</v>
       </c>
       <c r="Y23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y23)</f>
         <v>0.28470249200000003</v>
       </c>
     </row>
@@ -11096,99 +11101,99 @@
         <v>72</v>
       </c>
       <c r="B24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B24)</f>
         <v>0.89932388325000012</v>
       </c>
       <c r="C24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C24)</f>
         <v>0.44051631962500004</v>
       </c>
       <c r="D24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D24)</f>
         <v>0.39713482937499994</v>
       </c>
       <c r="E24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E24)</f>
         <v>0.42076447974999998</v>
       </c>
       <c r="F24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F24)</f>
         <v>0.51091898725000007</v>
       </c>
       <c r="G24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G24)</f>
         <v>0.54665465525000012</v>
       </c>
       <c r="H24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H24)</f>
         <v>0.8533259228750002</v>
       </c>
       <c r="I24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I24)</f>
         <v>1.431659451</v>
       </c>
       <c r="J24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J24)</f>
         <v>1.6340430362500002</v>
       </c>
       <c r="K24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K24)</f>
         <v>1.861900544</v>
       </c>
       <c r="L24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L24)</f>
         <v>1.5376233631250003</v>
       </c>
       <c r="M24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M24)</f>
         <v>1.2411690335000003</v>
       </c>
       <c r="N24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N24)</f>
         <v>1.311584865875</v>
       </c>
       <c r="O24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O24)</f>
         <v>1.3973699339999999</v>
       </c>
       <c r="P24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P24)</f>
         <v>1.3558213722500003</v>
       </c>
       <c r="Q24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q24)</f>
         <v>1.3325904633750001</v>
       </c>
       <c r="R24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R24)</f>
         <v>1.31789866275</v>
       </c>
       <c r="S24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S24)</f>
         <v>1.70462357175</v>
       </c>
       <c r="T24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T24)</f>
         <v>1.596641058875</v>
       </c>
       <c r="U24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U24)</f>
         <v>1.6805785441250003</v>
       </c>
       <c r="V24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V24)</f>
         <v>1.5866025507499999</v>
       </c>
       <c r="W24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W24)</f>
         <v>1.481455418625</v>
       </c>
       <c r="X24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X24)</f>
         <v>1.164483637</v>
       </c>
       <c r="Y24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y24)</f>
         <v>1.0932654134999999</v>
       </c>
     </row>
@@ -11197,99 +11202,99 @@
         <v>103</v>
       </c>
       <c r="B25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B25)</f>
         <v>0.10102848999999986</v>
       </c>
       <c r="C25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C25</f>
-        <v>-0.11162965299999997</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C25)</f>
+        <v>0.11162965299999997</v>
       </c>
       <c r="D25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D25</f>
-        <v>-4.2329311125000046E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D25)</f>
+        <v>4.2329311125000046E-2</v>
       </c>
       <c r="E25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E25</f>
-        <v>-0.18525018675000027</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E25)</f>
+        <v>0.18525018675000027</v>
       </c>
       <c r="F25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F25</f>
-        <v>-0.13397188162500023</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F25)</f>
+        <v>0.13397188162500023</v>
       </c>
       <c r="G25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G25)</f>
         <v>2.8768729875000079E-2</v>
       </c>
       <c r="H25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H25)</f>
         <v>0.28524024499999995</v>
       </c>
       <c r="I25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I25)</f>
         <v>1.0551410911249999</v>
       </c>
       <c r="J25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J25)</f>
         <v>1.515595150375</v>
       </c>
       <c r="K25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K25)</f>
         <v>1.7074881791250001</v>
       </c>
       <c r="L25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L25)</f>
         <v>1.509987735625</v>
       </c>
       <c r="M25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M25)</f>
         <v>1.3934443711250002</v>
       </c>
       <c r="N25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N25)</f>
         <v>1.3388933417499995</v>
       </c>
       <c r="O25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O25)</f>
         <v>1.1729568006250002</v>
       </c>
       <c r="P25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P25)</f>
         <v>1.1576843740000002</v>
       </c>
       <c r="Q25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q25)</f>
         <v>0.79850266012499993</v>
       </c>
       <c r="R25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R25)</f>
         <v>0.7932245256249999</v>
       </c>
       <c r="S25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S25)</f>
         <v>1.0762655737500002</v>
       </c>
       <c r="T25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T25)</f>
         <v>1.2270874735000001</v>
       </c>
       <c r="U25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U25)</f>
         <v>1.1045812362500003</v>
       </c>
       <c r="V25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V25)</f>
         <v>0.83125045287499977</v>
       </c>
       <c r="W25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W25)</f>
         <v>0.90433268525000021</v>
       </c>
       <c r="X25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X25)</f>
         <v>0.41595022699999973</v>
       </c>
       <c r="Y25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y25)</f>
         <v>0.15049355025000041</v>
       </c>
     </row>
@@ -11304,7 +11309,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y25"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11391,99 +11396,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B2)</f>
         <v>0.11010665900000001</v>
       </c>
       <c r="C2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C2)</f>
         <v>4.7271840000000002E-2</v>
       </c>
       <c r="D2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D2)</f>
         <v>0.10204936862500001</v>
       </c>
       <c r="E2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E2)</f>
         <v>3.8146954375E-2</v>
       </c>
       <c r="F2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F2)</f>
         <v>3.6319698875E-2</v>
       </c>
       <c r="G2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G2)</f>
         <v>7.8773858250000009E-2</v>
       </c>
       <c r="H2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H2)</f>
         <v>7.8004290375000007E-2</v>
       </c>
       <c r="I2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I2)</f>
         <v>0.11961910950000001</v>
       </c>
       <c r="J2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J2)</f>
         <v>4.2599752250000004E-2</v>
       </c>
       <c r="K2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K2)</f>
         <v>0.12102044687500002</v>
       </c>
       <c r="L2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L2)</f>
         <v>2.6039849500000004E-2</v>
       </c>
       <c r="M2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M2)</f>
         <v>8.1569937000000009E-2</v>
       </c>
       <c r="N2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N2)</f>
         <v>3.5692023375000007E-2</v>
       </c>
       <c r="O2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O2)</f>
         <v>8.3742984875000009E-2</v>
       </c>
       <c r="P2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P2)</f>
         <v>0.16652585200000003</v>
       </c>
       <c r="Q2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q2)</f>
         <v>4.7366198125000002E-2</v>
       </c>
       <c r="R2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R2)</f>
         <v>1.0677589500000001E-2</v>
       </c>
       <c r="S2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S2)</f>
         <v>0.170647512375</v>
       </c>
       <c r="T2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T2)</f>
         <v>0.153692721</v>
       </c>
       <c r="U2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U2)</f>
         <v>3.0661301250000002E-2</v>
       </c>
       <c r="V2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V2)</f>
         <v>0.13629237650000001</v>
       </c>
       <c r="W2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W2)</f>
         <v>0.10352333875</v>
       </c>
       <c r="X2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X2)</f>
         <v>7.6100967125000002E-2</v>
       </c>
       <c r="Y2" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y2</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y2)</f>
         <v>2.7304616625E-2</v>
       </c>
     </row>
@@ -11492,99 +11497,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B3)</f>
         <v>0.92036945275000004</v>
       </c>
       <c r="C3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C3)</f>
         <v>0.85847303687499998</v>
       </c>
       <c r="D3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D3)</f>
         <v>0.81342958449999991</v>
       </c>
       <c r="E3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E3)</f>
         <v>0.80767411749999996</v>
       </c>
       <c r="F3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F3)</f>
         <v>0.81741650112500008</v>
       </c>
       <c r="G3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G3)</f>
         <v>0.89851722712500015</v>
       </c>
       <c r="H3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H3)</f>
         <v>1.072150022375</v>
       </c>
       <c r="I3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I3)</f>
         <v>1.2905417521250002</v>
       </c>
       <c r="J3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J3)</f>
         <v>1.4050492886250001</v>
       </c>
       <c r="K3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K3)</f>
         <v>1.4225700140000002</v>
       </c>
       <c r="L3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L3)</f>
         <v>1.3841796160000002</v>
       </c>
       <c r="M3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M3)</f>
         <v>1.3913138627500001</v>
       </c>
       <c r="N3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N3)</f>
         <v>1.3901705200000001</v>
       </c>
       <c r="O3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O3)</f>
         <v>1.36746978</v>
       </c>
       <c r="P3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P3)</f>
         <v>1.2895382882500002</v>
       </c>
       <c r="Q3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q3)</f>
         <v>1.252592539875</v>
       </c>
       <c r="R3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R3)</f>
         <v>1.3045113972500002</v>
       </c>
       <c r="S3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S3)</f>
         <v>1.4460753781250002</v>
       </c>
       <c r="T3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T3)</f>
         <v>1.44083337775</v>
       </c>
       <c r="U3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U3)</f>
         <v>1.4110029458750002</v>
       </c>
       <c r="V3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V3)</f>
         <v>1.3867373466249999</v>
       </c>
       <c r="W3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W3)</f>
         <v>1.2997458861250002</v>
       </c>
       <c r="X3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X3)</f>
         <v>1.1370358230000002</v>
       </c>
       <c r="Y3" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y3</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y3)</f>
         <v>1.0315801143750001</v>
       </c>
     </row>
@@ -11593,99 +11598,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B4)</f>
         <v>0.98532199862500003</v>
       </c>
       <c r="C4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C4)</f>
         <v>0.91561193462500001</v>
       </c>
       <c r="D4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D4)</f>
         <v>0.82858543400000007</v>
       </c>
       <c r="E4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E4)</f>
         <v>0.89119119637500011</v>
       </c>
       <c r="F4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F4)</f>
         <v>0.88808307637500006</v>
       </c>
       <c r="G4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G4)</f>
         <v>0.9258239746250001</v>
       </c>
       <c r="H4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H4)</f>
         <v>1.37783021925</v>
       </c>
       <c r="I4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I4)</f>
         <v>1.534567069875</v>
       </c>
       <c r="J4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J4)</f>
         <v>1.6824234963750002</v>
       </c>
       <c r="K4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K4)</f>
         <v>1.6833114626249999</v>
       </c>
       <c r="L4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L4)</f>
         <v>1.5900687218750003</v>
       </c>
       <c r="M4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M4)</f>
         <v>1.7397013665000001</v>
       </c>
       <c r="N4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N4)</f>
         <v>1.6406864167500002</v>
       </c>
       <c r="O4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O4)</f>
         <v>1.53589916225</v>
       </c>
       <c r="P4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P4)</f>
         <v>1.4892777442499998</v>
       </c>
       <c r="Q4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q4)</f>
         <v>1.3915946960000003</v>
       </c>
       <c r="R4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R4)</f>
         <v>1.3924827575000001</v>
       </c>
       <c r="S4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S4)</f>
         <v>1.474181366</v>
       </c>
       <c r="T4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T4)</f>
         <v>1.474181366</v>
       </c>
       <c r="U4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U4)</f>
         <v>1.496381759625</v>
       </c>
       <c r="V4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V4)</f>
         <v>1.4559764861250002</v>
       </c>
       <c r="W4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W4)</f>
         <v>1.315668106125</v>
       </c>
       <c r="X4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X4)</f>
         <v>1.11275405875</v>
       </c>
       <c r="Y4" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y4</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y4)</f>
         <v>1.0767888069999998</v>
       </c>
     </row>
@@ -11694,99 +11699,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B5)</f>
         <v>3.0792882440000002</v>
       </c>
       <c r="C5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C5)</f>
         <v>2.7093571303749999</v>
       </c>
       <c r="D5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D5)</f>
         <v>2.5507345317500003</v>
       </c>
       <c r="E5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E5)</f>
         <v>2.5204433559999999</v>
       </c>
       <c r="F5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F5)</f>
         <v>2.6381569148750001</v>
       </c>
       <c r="G5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G5)</f>
         <v>2.8484279153750007</v>
       </c>
       <c r="H5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H5)</f>
         <v>3.437126624749999</v>
       </c>
       <c r="I5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I5)</f>
         <v>3.8424862147500001</v>
       </c>
       <c r="J5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J5)</f>
         <v>4.0669221997500005</v>
       </c>
       <c r="K5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K5)</f>
         <v>4.2052755353750007</v>
       </c>
       <c r="L5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L5)</f>
         <v>4.2437519308749998</v>
       </c>
       <c r="M5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M5)</f>
         <v>4.1994880913750006</v>
       </c>
       <c r="N5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N5)</f>
         <v>4.1756593229999996</v>
       </c>
       <c r="O5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O5)</f>
         <v>4.0895488738749997</v>
       </c>
       <c r="P5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P5)</f>
         <v>3.9593713163749999</v>
       </c>
       <c r="Q5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q5)</f>
         <v>3.8876803516250003</v>
       </c>
       <c r="R5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R5)</f>
         <v>4.0264680268750004</v>
       </c>
       <c r="S5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S5)</f>
         <v>4.5585321665</v>
       </c>
       <c r="T5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T5)</f>
         <v>4.6479667186249998</v>
       </c>
       <c r="U5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U5)</f>
         <v>4.6755714655000009</v>
       </c>
       <c r="V5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V5)</f>
         <v>4.5365342857500002</v>
       </c>
       <c r="W5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W5)</f>
         <v>4.3291617868749999</v>
       </c>
       <c r="X5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X5)</f>
         <v>3.9475620390000006</v>
       </c>
       <c r="Y5" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y5</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y5)</f>
         <v>3.4892772081250003</v>
       </c>
     </row>
@@ -11795,100 +11800,100 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B6</f>
-        <v>-0.25227502562499993</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B6)</f>
+        <v>0.25227502562499993</v>
       </c>
       <c r="C6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C6</f>
-        <v>-0.31786177112500003</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C6)</f>
+        <v>0.31786177112500003</v>
       </c>
       <c r="D6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D6</f>
-        <v>-0.35532370800000002</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D6)</f>
+        <v>0.35532370800000002</v>
       </c>
       <c r="E6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E6</f>
-        <v>-0.3519399285</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E6)</f>
+        <v>0.3519399285</v>
       </c>
       <c r="F6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F6</f>
-        <v>-0.33871238212499999</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F6)</f>
+        <v>0.33871238212499999</v>
       </c>
       <c r="G6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G6)</f>
         <v>0.71819010925000004</v>
       </c>
       <c r="H6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H6)</f>
         <v>0.87873753899999996</v>
       </c>
       <c r="I6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I6)</f>
         <v>1.0505555717500001</v>
       </c>
       <c r="J6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J6)</f>
         <v>0.69041282174999996</v>
       </c>
       <c r="K6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K6)</f>
         <v>0.22494544962499999</v>
       </c>
       <c r="L6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L6)</f>
         <v>0.14406628587499998</v>
       </c>
       <c r="M6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M6)</f>
         <v>0.13899059275</v>
       </c>
       <c r="N6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N6)</f>
         <v>0.15006481387500001</v>
       </c>
       <c r="O6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O6)</f>
         <v>8.5665011250000062E-2</v>
       </c>
       <c r="P6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P6)</f>
         <v>5.7607161750000024E-2</v>
       </c>
       <c r="Q6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q6)</f>
         <v>5.8451053749999371E-3</v>
       </c>
       <c r="R6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R6)</f>
         <v>4.1295288749999774E-3</v>
       </c>
       <c r="S6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S6)</f>
         <v>0.15517803399999996</v>
       </c>
       <c r="T6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T6)</f>
         <v>0.14328621599999991</v>
       </c>
       <c r="U6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U6)</f>
         <v>0.15497566425000003</v>
       </c>
       <c r="V6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V6)</f>
         <v>0.15512946799999999</v>
       </c>
       <c r="W6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W6)</f>
         <v>0.15159188475000002</v>
       </c>
       <c r="X6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X6</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X6)</f>
         <v>0.11811190812499994</v>
       </c>
       <c r="Y6" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y6</f>
-        <v>-8.3288312000000045E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y6)</f>
+        <v>8.3288312000000045E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -11896,99 +11901,99 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B7)</f>
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C7)</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G7)</f>
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J7)</f>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M7)</f>
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N7)</f>
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P7)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R7)</f>
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S7)</f>
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T7)</f>
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U7)</f>
         <v>0</v>
       </c>
       <c r="V7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V7)</f>
         <v>0</v>
       </c>
       <c r="W7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W7)</f>
         <v>0</v>
       </c>
       <c r="X7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X7)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y7</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y7)</f>
         <v>0</v>
       </c>
     </row>
@@ -11997,99 +12002,99 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B8)</f>
         <v>1.2642087937499999</v>
       </c>
       <c r="C8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C8)</f>
         <v>1.3448970796250002</v>
       </c>
       <c r="D8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D8)</f>
         <v>1.412265586875</v>
       </c>
       <c r="E8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E8)</f>
         <v>1.592504406125</v>
       </c>
       <c r="F8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F8)</f>
         <v>1.6870986940000003</v>
       </c>
       <c r="G8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G8)</f>
         <v>1.0360691071250001</v>
       </c>
       <c r="H8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H8)</f>
         <v>0.33318157187500003</v>
       </c>
       <c r="I8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I8</f>
-        <v>-0.99516754150000009</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I8)</f>
+        <v>0.99516754150000009</v>
       </c>
       <c r="J8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J8</f>
-        <v>-1.6977924346250004</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J8)</f>
+        <v>1.6977924346250004</v>
       </c>
       <c r="K8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K8</f>
-        <v>-1.2328057287500003</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K8)</f>
+        <v>1.2328057287500003</v>
       </c>
       <c r="L8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L8</f>
-        <v>-0.58069572437499983</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L8)</f>
+        <v>0.58069572437499983</v>
       </c>
       <c r="M8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M8</f>
-        <v>-0.44012994750000001</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M8)</f>
+        <v>0.44012994750000001</v>
       </c>
       <c r="N8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N8</f>
-        <v>-0.95554857262499981</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N8)</f>
+        <v>0.95554857262499981</v>
       </c>
       <c r="O8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O8</f>
-        <v>-0.38937177649999999</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O8)</f>
+        <v>0.38937177649999999</v>
       </c>
       <c r="P8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P8</f>
-        <v>-0.44793472275000001</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P8)</f>
+        <v>0.44793472275000001</v>
       </c>
       <c r="Q8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q8</f>
-        <v>-0.54618597025000004</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q8)</f>
+        <v>0.54618597025000004</v>
       </c>
       <c r="R8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R8</f>
-        <v>-0.73682556125000009</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R8)</f>
+        <v>0.73682556125000009</v>
       </c>
       <c r="S8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S8</f>
-        <v>-1.0962503431249999</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S8)</f>
+        <v>1.0962503431249999</v>
       </c>
       <c r="T8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T8</f>
-        <v>-1.1611412048750001</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T8)</f>
+        <v>1.1611412048750001</v>
       </c>
       <c r="U8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U8</f>
-        <v>-1.2492631913750003</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U8)</f>
+        <v>1.2492631913750003</v>
       </c>
       <c r="V8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V8</f>
-        <v>-1.2490198137500004</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V8)</f>
+        <v>1.2490198137500004</v>
       </c>
       <c r="W8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W8</f>
-        <v>-0.71617908474999992</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W8)</f>
+        <v>0.71617908474999992</v>
       </c>
       <c r="X8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X8)</f>
         <v>0.25351104725000012</v>
       </c>
       <c r="Y8" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y8</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y8)</f>
         <v>1.1216148377499999</v>
       </c>
     </row>
@@ -12098,99 +12103,99 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B9)</f>
         <v>1.3842130661250001</v>
       </c>
       <c r="C9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C9)</f>
         <v>1.275433826625</v>
       </c>
       <c r="D9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D9)</f>
         <v>1.2163155081250001</v>
       </c>
       <c r="E9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E9)</f>
         <v>1.1915225985</v>
       </c>
       <c r="F9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F9)</f>
         <v>1.175179767625</v>
       </c>
       <c r="G9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G9)</f>
         <v>1.2457461358749999</v>
       </c>
       <c r="H9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H9)</f>
         <v>1.551825762</v>
       </c>
       <c r="I9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I9)</f>
         <v>1.7658265115</v>
       </c>
       <c r="J9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J9)</f>
         <v>2.1070416451250003</v>
       </c>
       <c r="K9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K9)</f>
         <v>2.267346382375</v>
       </c>
       <c r="L9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L9)</f>
         <v>2.2683042527500001</v>
       </c>
       <c r="M9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M9)</f>
         <v>2.3095149040000003</v>
       </c>
       <c r="N9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N9)</f>
         <v>2.2329436778750003</v>
       </c>
       <c r="O9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O9)</f>
         <v>2.1881078718750002</v>
       </c>
       <c r="P9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P9)</f>
         <v>2.1654352189999999</v>
       </c>
       <c r="Q9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q9)</f>
         <v>2.0864663125000003</v>
       </c>
       <c r="R9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R9)</f>
         <v>2.0940012931250003</v>
       </c>
       <c r="S9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S9)</f>
         <v>2.3412739276250001</v>
       </c>
       <c r="T9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T9)</f>
         <v>2.0314957143750001</v>
       </c>
       <c r="U9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U9)</f>
         <v>2.01777539275</v>
       </c>
       <c r="V9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V9)</f>
         <v>2.0237779142500001</v>
       </c>
       <c r="W9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W9)</f>
         <v>1.926790332875</v>
       </c>
       <c r="X9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X9)</f>
         <v>1.6722723961250001</v>
       </c>
       <c r="Y9" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y9</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y9)</f>
         <v>1.4800371170000002</v>
       </c>
     </row>
@@ -12199,99 +12204,99 @@
         <v>12</v>
       </c>
       <c r="B10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B10)</f>
         <v>8.5340371512500024</v>
       </c>
       <c r="C10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C10)</f>
         <v>7.4770470697500002</v>
       </c>
       <c r="D10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D10)</f>
         <v>7.096566625374999</v>
       </c>
       <c r="E10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E10)</f>
         <v>6.9286992165000001</v>
       </c>
       <c r="F10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F10)</f>
         <v>6.8069819753750016</v>
       </c>
       <c r="G10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G10)</f>
         <v>7.7334740086250013</v>
       </c>
       <c r="H10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H10)</f>
         <v>10.633695440250001</v>
       </c>
       <c r="I10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I10)</f>
         <v>12.82786399575</v>
       </c>
       <c r="J10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J10)</f>
         <v>13.859841506499999</v>
       </c>
       <c r="K10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K10)</f>
         <v>13.70785358</v>
       </c>
       <c r="L10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L10)</f>
         <v>14.457595498500002</v>
       </c>
       <c r="M10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M10)</f>
         <v>14.820741487250002</v>
       </c>
       <c r="N10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N10)</f>
         <v>14.1833595855</v>
       </c>
       <c r="O10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O10)</f>
         <v>13.958067056125001</v>
       </c>
       <c r="P10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P10)</f>
         <v>13.038500918</v>
       </c>
       <c r="Q10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q10)</f>
         <v>12.578958597875001</v>
       </c>
       <c r="R10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R10)</f>
         <v>13.037761322125</v>
       </c>
       <c r="S10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S10)</f>
         <v>15.311829240625002</v>
       </c>
       <c r="T10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T10)</f>
         <v>15.251688671750001</v>
       </c>
       <c r="U10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U10)</f>
         <v>15.242378543125</v>
       </c>
       <c r="V10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V10)</f>
         <v>15.179253712</v>
       </c>
       <c r="W10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W10)</f>
         <v>14.310201896500002</v>
       </c>
       <c r="X10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X10)</f>
         <v>12.439281112375001</v>
       </c>
       <c r="Y10" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y10</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y10)</f>
         <v>10.62047176525</v>
       </c>
     </row>
@@ -12300,99 +12305,99 @@
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B11)</f>
         <v>0.185179758</v>
       </c>
       <c r="C11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C11)</f>
         <v>0.18106026650000001</v>
       </c>
       <c r="D11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D11)</f>
         <v>0.173235798</v>
       </c>
       <c r="E11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E11)</f>
         <v>0.17540516850000001</v>
       </c>
       <c r="F11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F11)</f>
         <v>0.17447891250000003</v>
       </c>
       <c r="G11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G11)</f>
         <v>0.18552093512500001</v>
       </c>
       <c r="H11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H11)</f>
         <v>0.23539295200000004</v>
       </c>
       <c r="I11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I11)</f>
         <v>0.26722717287500003</v>
       </c>
       <c r="J11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J11)</f>
         <v>0.28680057537500003</v>
       </c>
       <c r="K11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K11)</f>
         <v>0.29884190575000003</v>
       </c>
       <c r="L11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L11)</f>
         <v>0.27858610162500003</v>
       </c>
       <c r="M11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M11)</f>
         <v>0.28772692687500001</v>
       </c>
       <c r="N11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N11)</f>
         <v>0.283924436625</v>
       </c>
       <c r="O11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O11)</f>
         <v>0.27319922450000006</v>
       </c>
       <c r="P11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P11)</f>
         <v>0.25928082462500002</v>
       </c>
       <c r="Q11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q11)</f>
         <v>0.24297370912499999</v>
       </c>
       <c r="R11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R11)</f>
         <v>0.24424123762500002</v>
       </c>
       <c r="S11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S11)</f>
         <v>0.27612419112500003</v>
       </c>
       <c r="T11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T11)</f>
         <v>0.27736735337500001</v>
       </c>
       <c r="U11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U11)</f>
         <v>0.28365621562499999</v>
       </c>
       <c r="V11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V11)</f>
         <v>0.274807977875</v>
       </c>
       <c r="W11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W11)</f>
         <v>0.26656904212500004</v>
       </c>
       <c r="X11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X11)</f>
         <v>0.23351597799999999</v>
       </c>
       <c r="Y11" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y11</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y11)</f>
         <v>0.20662999150000003</v>
       </c>
     </row>
@@ -12401,99 +12406,99 @@
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B12)</f>
         <v>1.3226500000000001</v>
       </c>
       <c r="C12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C12)</f>
         <v>1.2824500000000001</v>
       </c>
       <c r="D12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D12)</f>
         <v>1.2712500000000002</v>
       </c>
       <c r="E12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E12)</f>
         <v>1.2799500000000001</v>
       </c>
       <c r="F12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F12)</f>
         <v>1.3443000000000001</v>
       </c>
       <c r="G12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G12)</f>
         <v>1.5362500000000001</v>
       </c>
       <c r="H12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H12)</f>
         <v>2.07185</v>
       </c>
       <c r="I12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I12)</f>
         <v>2.4237000000000002</v>
       </c>
       <c r="J12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J12)</f>
         <v>2.50535</v>
       </c>
       <c r="K12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K12)</f>
         <v>2.3428</v>
       </c>
       <c r="L12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L12)</f>
         <v>2.3673500000000001</v>
       </c>
       <c r="M12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M12)</f>
         <v>2.3739500000000002</v>
       </c>
       <c r="N12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N12)</f>
         <v>2.2328999999999999</v>
       </c>
       <c r="O12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O12)</f>
         <v>2.2453499999999997</v>
       </c>
       <c r="P12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P12)</f>
         <v>2.1008000000000004</v>
       </c>
       <c r="Q12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q12)</f>
         <v>2.0702500000000001</v>
       </c>
       <c r="R12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R12)</f>
         <v>2.1122000000000001</v>
       </c>
       <c r="S12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S12)</f>
         <v>2.2300999999999997</v>
       </c>
       <c r="T12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T12)</f>
         <v>2.1915500000000003</v>
       </c>
       <c r="U12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U12)</f>
         <v>2.1452999999999998</v>
       </c>
       <c r="V12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V12)</f>
         <v>2.0925500000000001</v>
       </c>
       <c r="W12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W12)</f>
         <v>1.87</v>
       </c>
       <c r="X12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X12)</f>
         <v>1.6447000000000001</v>
       </c>
       <c r="Y12" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y12</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y12)</f>
         <v>1.4314499999999999</v>
       </c>
     </row>
@@ -12502,99 +12507,99 @@
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B13)</f>
         <v>0.33688823287500003</v>
       </c>
       <c r="C13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C13)</f>
         <v>0.32682740087500006</v>
       </c>
       <c r="D13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D13)</f>
         <v>0.288530744625</v>
       </c>
       <c r="E13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E13)</f>
         <v>0.30297493775000001</v>
       </c>
       <c r="F13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F13)</f>
         <v>0.31169660400000004</v>
       </c>
       <c r="G13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G13)</f>
         <v>0.35333536250000003</v>
       </c>
       <c r="H13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H13)</f>
         <v>0.40623136162500001</v>
       </c>
       <c r="I13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I13)</f>
         <v>0.48769285100000004</v>
       </c>
       <c r="J13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J13)</f>
         <v>0.4877426505000001</v>
       </c>
       <c r="K13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K13)</f>
         <v>0.50467630337500002</v>
       </c>
       <c r="L13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L13)</f>
         <v>0.44337384400000002</v>
       </c>
       <c r="M13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M13)</f>
         <v>0.46346600950000011</v>
       </c>
       <c r="N13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N13)</f>
         <v>0.43560786237500004</v>
       </c>
       <c r="O13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O13)</f>
         <v>0.41616838574999993</v>
       </c>
       <c r="P13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P13)</f>
         <v>0.42856787437500005</v>
       </c>
       <c r="Q13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q13)</f>
         <v>0.44608207337500005</v>
       </c>
       <c r="R13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R13)</f>
         <v>0.49740697437500003</v>
       </c>
       <c r="S13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S13)</f>
         <v>0.52677780374999994</v>
       </c>
       <c r="T13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T13)</f>
         <v>0.50027740600000004</v>
       </c>
       <c r="U13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U13)</f>
         <v>0.53392657037500002</v>
       </c>
       <c r="V13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V13)</f>
         <v>0.53437045812500006</v>
       </c>
       <c r="W13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W13)</f>
         <v>0.46498701862500003</v>
       </c>
       <c r="X13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X13)</f>
         <v>0.39595960687499998</v>
       </c>
       <c r="Y13" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y13</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y13)</f>
         <v>0.38953051275000006</v>
       </c>
     </row>
@@ -12603,99 +12608,99 @@
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B14)</f>
         <v>2.9940769000000002E-2</v>
       </c>
       <c r="C14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C14)</f>
         <v>2.9940769000000002E-2</v>
       </c>
       <c r="D14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D14)</f>
         <v>2.9940769000000002E-2</v>
       </c>
       <c r="E14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E14)</f>
         <v>2.9940769000000002E-2</v>
       </c>
       <c r="F14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F14)</f>
         <v>3.2523640999999992E-2</v>
       </c>
       <c r="G14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G14)</f>
         <v>2.9205968999999998E-2</v>
       </c>
       <c r="H14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H14)</f>
         <v>4.7830277750000011E-2</v>
       </c>
       <c r="I14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I14)</f>
         <v>5.0363356000000005E-2</v>
       </c>
       <c r="J14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J14)</f>
         <v>5.0363356000000005E-2</v>
       </c>
       <c r="K14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K14)</f>
         <v>5.9433514000000014E-2</v>
       </c>
       <c r="L14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L14)</f>
         <v>7.4420593625000003E-2</v>
       </c>
       <c r="M14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M14)</f>
         <v>6.7533203999999999E-2</v>
       </c>
       <c r="N14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N14)</f>
         <v>7.5540924000000009E-2</v>
       </c>
       <c r="O14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O14)</f>
         <v>7.5803051750000003E-2</v>
       </c>
       <c r="P14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P14)</f>
         <v>7.0939083250000021E-2</v>
       </c>
       <c r="Q14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q14)</f>
         <v>6.9697569250000022E-2</v>
       </c>
       <c r="R14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R14)</f>
         <v>7.4751415625000012E-2</v>
       </c>
       <c r="S14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S14)</f>
         <v>7.7464771000000002E-2</v>
       </c>
       <c r="T14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T14)</f>
         <v>7.7464771000000002E-2</v>
       </c>
       <c r="U14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U14)</f>
         <v>7.7464771000000002E-2</v>
       </c>
       <c r="V14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V14)</f>
         <v>7.7464771000000002E-2</v>
       </c>
       <c r="W14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W14)</f>
         <v>5.1930424625000006E-2</v>
       </c>
       <c r="X14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X14)</f>
         <v>4.0823289750000005E-2</v>
       </c>
       <c r="Y14" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y14</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y14)</f>
         <v>3.3313596000000001E-2</v>
       </c>
     </row>
@@ -12704,99 +12709,99 @@
         <v>20</v>
       </c>
       <c r="B15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B15)</f>
         <v>0.19045515050000003</v>
       </c>
       <c r="C15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C15)</f>
         <v>0.1904551505</v>
       </c>
       <c r="D15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D15)</f>
         <v>0.19045515050000003</v>
       </c>
       <c r="E15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E15)</f>
         <v>0.18771133400000001</v>
       </c>
       <c r="F15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F15)</f>
         <v>0.20966186549999999</v>
       </c>
       <c r="G15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G15)</f>
         <v>0.19621706024999999</v>
       </c>
       <c r="H15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H15)</f>
         <v>0.19923529625</v>
       </c>
       <c r="I15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I15)</f>
         <v>0.16576085075000002</v>
       </c>
       <c r="J15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J15)</f>
         <v>0.141889572125</v>
       </c>
       <c r="K15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K15)</f>
         <v>0.12405471800000001</v>
       </c>
       <c r="L15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L15)</f>
         <v>0.1492979525</v>
       </c>
       <c r="M15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M15)</f>
         <v>0.16905345900000002</v>
       </c>
       <c r="N15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N15)</f>
         <v>0.18551630962500001</v>
       </c>
       <c r="O15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O15)</f>
         <v>0.20197925550000001</v>
       </c>
       <c r="P15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P15)</f>
         <v>0.19649157512500001</v>
       </c>
       <c r="Q15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q15)</f>
         <v>0.17179722775</v>
       </c>
       <c r="R15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R15)</f>
         <v>0.17454099650000002</v>
       </c>
       <c r="S15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S15)</f>
         <v>0.188260126</v>
       </c>
       <c r="T15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T15)</f>
         <v>0.19100399000000001</v>
       </c>
       <c r="U15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U15)</f>
         <v>0.18551626200000002</v>
       </c>
       <c r="V15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V15)</f>
         <v>0.18880877500000001</v>
       </c>
       <c r="W15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W15)</f>
         <v>0.21514949799999999</v>
       </c>
       <c r="X15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X15)</f>
         <v>0.2041742325</v>
       </c>
       <c r="Y15" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y15</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y15)</f>
         <v>0.18496737500000004</v>
       </c>
     </row>
@@ -12805,99 +12810,99 @@
         <v>21</v>
       </c>
       <c r="B16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B16)</f>
         <v>0.30020775787500004</v>
       </c>
       <c r="C16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C16)</f>
         <v>0.27770853049999999</v>
       </c>
       <c r="D16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D16)</f>
         <v>0.26124572750000002</v>
       </c>
       <c r="E16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E16)</f>
         <v>0.25932497987500003</v>
       </c>
       <c r="F16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F16)</f>
         <v>0.25959935187500005</v>
       </c>
       <c r="G16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G16)</f>
         <v>0.29087886800000001</v>
       </c>
       <c r="H16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H16)</f>
         <v>0.4431606292500001</v>
       </c>
       <c r="I16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I16)</f>
         <v>0.54248681050000003</v>
       </c>
       <c r="J16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J16)</f>
         <v>0.57843079562499999</v>
       </c>
       <c r="K16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K16)</f>
         <v>0.58090023987499995</v>
       </c>
       <c r="L16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L16)</f>
         <v>0.55538268087500009</v>
       </c>
       <c r="M16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M16)</f>
         <v>0.58007707612500004</v>
       </c>
       <c r="N16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N16)</f>
         <v>0.58309526450000004</v>
       </c>
       <c r="O16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O16)</f>
         <v>0.57431502350000008</v>
       </c>
       <c r="P16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P16)</f>
         <v>0.51148171425</v>
       </c>
       <c r="Q16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q16)</f>
         <v>0.47855577475</v>
       </c>
       <c r="R16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R16)</f>
         <v>0.50599398612500002</v>
       </c>
       <c r="S16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S16)</f>
         <v>0.59022922512500009</v>
       </c>
       <c r="T16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T16)</f>
         <v>0.56251659387499997</v>
       </c>
       <c r="U16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U16)</f>
         <v>0.55483403200000003</v>
       </c>
       <c r="V16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V16)</f>
         <v>0.54111490250000005</v>
       </c>
       <c r="W16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W16)</f>
         <v>0.50434775349999994</v>
       </c>
       <c r="X16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X16)</f>
         <v>0.41764311787500008</v>
       </c>
       <c r="Y16" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y16</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y16)</f>
         <v>0.36221804612499997</v>
       </c>
     </row>
@@ -12906,99 +12911,99 @@
         <v>26</v>
       </c>
       <c r="B17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B17)</f>
         <v>1.0661877157500002</v>
       </c>
       <c r="C17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C17)</f>
         <v>0.94897346537500005</v>
       </c>
       <c r="D17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D17)</f>
         <v>0.90395412450000012</v>
       </c>
       <c r="E17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E17)</f>
         <v>0.89280643474999999</v>
       </c>
       <c r="F17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F17)</f>
         <v>0.89280643474999999</v>
       </c>
       <c r="G17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G17)</f>
         <v>0.94511461287500009</v>
       </c>
       <c r="H17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H17)</f>
         <v>1.1785831927500003</v>
       </c>
       <c r="I17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I17)</f>
         <v>1.3478194711250002</v>
       </c>
       <c r="J17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J17)</f>
         <v>1.5054794787500001</v>
       </c>
       <c r="K17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K17)</f>
         <v>1.5410662173749987</v>
       </c>
       <c r="L17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L17)</f>
         <v>1.5359211444999978</v>
       </c>
       <c r="M17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M17)</f>
         <v>1.5359211444999976</v>
       </c>
       <c r="N17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N17)</f>
         <v>1.5067657946250002</v>
       </c>
       <c r="O17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O17)</f>
         <v>1.478467893375</v>
       </c>
       <c r="P17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P17)</f>
         <v>1.4373071670000002</v>
       </c>
       <c r="Q17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q17)</f>
         <v>1.4099329948750001</v>
       </c>
       <c r="R17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R17)</f>
         <v>1.3784037110000003</v>
       </c>
       <c r="S17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S17)</f>
         <v>1.475731372624999</v>
       </c>
       <c r="T17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T17)</f>
         <v>1.5509277343750003</v>
       </c>
       <c r="U17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U17)</f>
         <v>1.5504989625000001</v>
       </c>
       <c r="V17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V17)</f>
         <v>1.5500701905000001</v>
       </c>
       <c r="W17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W17)</f>
         <v>1.4760789392500002</v>
       </c>
       <c r="X17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X17)</f>
         <v>1.357007074125</v>
       </c>
       <c r="Y17" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y17</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y17)</f>
         <v>1.2117912291250001</v>
       </c>
     </row>
@@ -13007,99 +13012,99 @@
         <v>30</v>
       </c>
       <c r="B18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B18)</f>
         <v>0.50347483162500006</v>
       </c>
       <c r="C18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C18)</f>
         <v>0.4712662458750001</v>
       </c>
       <c r="D18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D18)</f>
         <v>0.473163271</v>
       </c>
       <c r="E18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E18)</f>
         <v>0.47430931325000003</v>
       </c>
       <c r="F18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F18)</f>
         <v>0.483402860125</v>
       </c>
       <c r="G18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G18)</f>
         <v>0.5154629112500001</v>
       </c>
       <c r="H18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H18)</f>
         <v>0.66691132787500007</v>
       </c>
       <c r="I18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I18)</f>
         <v>0.75401415824999996</v>
       </c>
       <c r="J18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J18)</f>
         <v>0.78204156162500016</v>
       </c>
       <c r="K18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K18)</f>
         <v>0.75566241749999996</v>
       </c>
       <c r="L18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L18)</f>
         <v>0.75665708775000007</v>
       </c>
       <c r="M18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M18)</f>
         <v>0.79472231862499998</v>
       </c>
       <c r="N18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N18)</f>
         <v>0.78363454337499994</v>
       </c>
       <c r="O18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O18)</f>
         <v>0.78305708174999999</v>
       </c>
       <c r="P18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P18)</f>
         <v>0.75046927937500008</v>
       </c>
       <c r="Q18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q18)</f>
         <v>0.73703949462500007</v>
       </c>
       <c r="R18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R18)</f>
         <v>0.73669785250000008</v>
       </c>
       <c r="S18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S18)</f>
         <v>0.75458177324999998</v>
       </c>
       <c r="T18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T18)</f>
         <v>0.74088495975000002</v>
       </c>
       <c r="U18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U18)</f>
         <v>0.71675243387499998</v>
       </c>
       <c r="V18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V18)</f>
         <v>0.72039303787500009</v>
       </c>
       <c r="W18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W18)</f>
         <v>0.67711143500000004</v>
       </c>
       <c r="X18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X18)</f>
         <v>0.57489131687499995</v>
       </c>
       <c r="Y18" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y18</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y18)</f>
         <v>0.54407416587500002</v>
       </c>
     </row>
@@ -13108,99 +13113,99 @@
         <v>35</v>
       </c>
       <c r="B19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B19)</f>
         <v>0.812282316</v>
       </c>
       <c r="C19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C19)</f>
         <v>0.76313231600000009</v>
       </c>
       <c r="D19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D19)</f>
         <v>0.72058231600000011</v>
       </c>
       <c r="E19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E19)</f>
         <v>0.71323231600000003</v>
       </c>
       <c r="F19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F19)</f>
         <v>0.72828231600000004</v>
       </c>
       <c r="G19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G19)</f>
         <v>0.86318231600000006</v>
       </c>
       <c r="H19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H19)</f>
         <v>1.2199323160000002</v>
       </c>
       <c r="I19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I19)</f>
         <v>1.4438323159999999</v>
       </c>
       <c r="J19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J19)</f>
         <v>1.4832323160000001</v>
       </c>
       <c r="K19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K19)</f>
         <v>1.5035323160000003</v>
       </c>
       <c r="L19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L19)</f>
         <v>1.3601823160000002</v>
       </c>
       <c r="M19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M19)</f>
         <v>1.446282316</v>
       </c>
       <c r="N19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N19)</f>
         <v>1.4028823160000001</v>
       </c>
       <c r="O19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O19)</f>
         <v>1.3366823160000001</v>
       </c>
       <c r="P19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P19)</f>
         <v>1.2306823160000002</v>
       </c>
       <c r="Q19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q19)</f>
         <v>1.2134823160000001</v>
       </c>
       <c r="R19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R19)</f>
         <v>1.274982316</v>
       </c>
       <c r="S19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S19)</f>
         <v>1.3850323160000002</v>
       </c>
       <c r="T19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T19)</f>
         <v>1.3380323160000001</v>
       </c>
       <c r="U19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U19)</f>
         <v>1.330032316</v>
       </c>
       <c r="V19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V19)</f>
         <v>1.309382316</v>
       </c>
       <c r="W19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W19)</f>
         <v>1.2192823160000001</v>
       </c>
       <c r="X19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X19)</f>
         <v>1.0434823160000002</v>
       </c>
       <c r="Y19" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y19</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y19)</f>
         <v>0.92478231599999994</v>
       </c>
     </row>
@@ -13209,100 +13214,100 @@
         <v>36</v>
       </c>
       <c r="B20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B20)</f>
         <v>1.5000000000000001E-4</v>
       </c>
       <c r="C20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C20)</f>
         <v>9.3000000000000013E-2</v>
       </c>
       <c r="D20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D20</f>
-        <v>-1.7950000000000001E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D20)</f>
+        <v>1.7950000000000001E-2</v>
       </c>
       <c r="E20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E20</f>
-        <v>-2.2499999999999998E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E20)</f>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F20)</f>
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="G20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G20</f>
-        <v>-4.5999999999999999E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G20)</f>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="H20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H20)</f>
         <v>1.4500000000000001E-3</v>
       </c>
       <c r="I20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I20</f>
-        <v>-1.085E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I20)</f>
+        <v>1.085E-2</v>
       </c>
       <c r="J20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J20</f>
-        <v>-1.7850000000000001E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J20)</f>
+        <v>1.7850000000000001E-2</v>
       </c>
       <c r="K20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K20</f>
-        <v>-1.15E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K20)</f>
+        <v>1.15E-3</v>
       </c>
       <c r="L20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L20</f>
-        <v>-4.2000000000000006E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L20)</f>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="M20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M20)</f>
         <v>1.5950000000000002E-2</v>
       </c>
       <c r="N20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N20</f>
-        <v>-1.84E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N20)</f>
+        <v>1.84E-2</v>
       </c>
       <c r="O20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O20</f>
-        <v>-3.6249999999999998E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O20)</f>
+        <v>3.6249999999999998E-2</v>
       </c>
       <c r="P20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P20</f>
-        <v>-6.0499999999999998E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P20)</f>
+        <v>6.0499999999999998E-3</v>
       </c>
       <c r="Q20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q20</f>
-        <v>-8.4000000000000012E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q20)</f>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="R20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R20)</f>
         <v>1.72E-2</v>
       </c>
       <c r="S20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S20)</f>
         <v>1.5000000000000001E-4</v>
       </c>
       <c r="T20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T20</f>
-        <v>-9.4000000000000004E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T20)</f>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="U20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U20)</f>
         <v>1.8350000000000002E-2</v>
       </c>
       <c r="V20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V20</f>
-        <v>-5.850000000000001E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V20)</f>
+        <v>5.850000000000001E-3</v>
       </c>
       <c r="W20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W20</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W20)</f>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="X20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X20</f>
-        <v>-3.5000000000000005E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X20)</f>
+        <v>3.5000000000000005E-3</v>
       </c>
       <c r="Y20" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y20</f>
-        <v>-7.5500000000000003E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y20)</f>
+        <v>7.5500000000000003E-3</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -13310,99 +13315,99 @@
         <v>42</v>
       </c>
       <c r="B21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B21)</f>
         <v>0.70854492200000008</v>
       </c>
       <c r="C21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C21)</f>
         <v>0.64968400012500016</v>
       </c>
       <c r="D21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D21)</f>
         <v>0.61807346337500002</v>
       </c>
       <c r="E21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E21)</f>
         <v>0.61480336175000005</v>
       </c>
       <c r="F21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F21)</f>
         <v>0.63714876175000001</v>
       </c>
       <c r="G21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G21)</f>
         <v>0.68837957387500004</v>
       </c>
       <c r="H21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H21)</f>
         <v>0.89384765625000007</v>
       </c>
       <c r="I21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I21)</f>
         <v>1.0279197692500002</v>
       </c>
       <c r="J21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J21)</f>
         <v>1.0764253616250001</v>
       </c>
       <c r="K21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K21)</f>
         <v>1.09223079675</v>
       </c>
       <c r="L21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L21)</f>
         <v>1.0704305647500001</v>
       </c>
       <c r="M21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M21)</f>
         <v>1.0993158340000002</v>
       </c>
       <c r="N21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N21)</f>
         <v>1.0846006392500003</v>
       </c>
       <c r="O21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O21)</f>
         <v>1.0246496199999999</v>
       </c>
       <c r="P21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P21)</f>
         <v>0.99085922250000003</v>
       </c>
       <c r="Q21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q21)</f>
         <v>0.92927322387499989</v>
       </c>
       <c r="R21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R21)</f>
         <v>0.94126343724999995</v>
       </c>
       <c r="S21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S21)</f>
         <v>1.1042207717499999</v>
       </c>
       <c r="T21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T21)</f>
         <v>1.114031124125</v>
       </c>
       <c r="U21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U21)</f>
         <v>1.12329635625</v>
       </c>
       <c r="V21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V21)</f>
         <v>1.090050792625</v>
       </c>
       <c r="W21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W21)</f>
         <v>1.0442700385000001</v>
       </c>
       <c r="X21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X21)</f>
         <v>0.93526840212500018</v>
       </c>
       <c r="Y21" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y21</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y21)</f>
         <v>0.80283141137500003</v>
       </c>
     </row>
@@ -13411,99 +13416,99 @@
         <v>55</v>
       </c>
       <c r="B22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="C22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="D22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="E22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="F22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="G22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G22)</f>
         <v>0.12313051250000001</v>
       </c>
       <c r="H22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H22)</f>
         <v>0.19532728187500001</v>
       </c>
       <c r="I22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I22)</f>
         <v>0.26752405150000003</v>
       </c>
       <c r="J22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J22)</f>
         <v>0.27977881425000001</v>
       </c>
       <c r="K22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="L22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="M22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="N22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="O22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O22)</f>
         <v>0.29203357700000004</v>
       </c>
       <c r="P22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P22)</f>
         <v>0.27405104637500005</v>
       </c>
       <c r="Q22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q22)</f>
         <v>0.26805686950000002</v>
       </c>
       <c r="R22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R22)</f>
         <v>0.26805686950000002</v>
       </c>
       <c r="S22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S22)</f>
         <v>0.28643901325000004</v>
       </c>
       <c r="T22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T22)</f>
         <v>0.29256639450000005</v>
       </c>
       <c r="U22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U22)</f>
         <v>0.29256639450000005</v>
       </c>
       <c r="V22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V22)</f>
         <v>0.29256639450000005</v>
       </c>
       <c r="W22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W22)</f>
         <v>0.28657221762500001</v>
       </c>
       <c r="X22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X22)</f>
         <v>0.22663028225000004</v>
       </c>
       <c r="Y22" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y22</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y22)</f>
         <v>0.19665927900000002</v>
       </c>
     </row>
@@ -13512,99 +13517,99 @@
         <v>68</v>
       </c>
       <c r="B23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B23)</f>
         <v>0.28260931962500002</v>
       </c>
       <c r="C23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C23)</f>
         <v>0.27046856862500002</v>
       </c>
       <c r="D23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D23)</f>
         <v>0.25958385449999999</v>
       </c>
       <c r="E23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E23)</f>
         <v>0.28637704850000001</v>
       </c>
       <c r="F23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F23)</f>
         <v>0.27632966050000002</v>
       </c>
       <c r="G23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G23)</f>
         <v>0.27632966050000002</v>
       </c>
       <c r="H23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H23)</f>
         <v>0.30982093800000005</v>
       </c>
       <c r="I23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I23)</f>
         <v>0.32656674362500004</v>
       </c>
       <c r="J23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J23)</f>
         <v>0.31651935550000004</v>
       </c>
       <c r="K23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K23)</f>
         <v>0.34331235875000005</v>
       </c>
       <c r="L23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L23)</f>
         <v>0.34833607662500005</v>
       </c>
       <c r="M23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M23)</f>
         <v>0.34080057125000002</v>
       </c>
       <c r="N23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N23)</f>
         <v>0.33493947974999999</v>
       </c>
       <c r="O23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O23)</f>
         <v>0.33159036625000005</v>
       </c>
       <c r="P23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P23)</f>
         <v>0.32991580950000005</v>
       </c>
       <c r="Q23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q23)</f>
         <v>0.29851779937500006</v>
       </c>
       <c r="R23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R23)</f>
         <v>0.31735653862500002</v>
       </c>
       <c r="S23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S23)</f>
         <v>0.32656650549999999</v>
       </c>
       <c r="T23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T23)</f>
         <v>0.29516849537500001</v>
       </c>
       <c r="U23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U23)</f>
         <v>0.32656650549999999</v>
       </c>
       <c r="V23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V23)</f>
         <v>0.30563449875000004</v>
       </c>
       <c r="W23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W23)</f>
         <v>0.28470249200000003</v>
       </c>
       <c r="X23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X23)</f>
         <v>0.28470249200000003</v>
       </c>
       <c r="Y23" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y23</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y23)</f>
         <v>0.28470249200000003</v>
       </c>
     </row>
@@ -13613,99 +13618,99 @@
         <v>72</v>
       </c>
       <c r="B24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B24)</f>
         <v>0.89932388325000012</v>
       </c>
       <c r="C24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C24)</f>
         <v>0.44051631962500004</v>
       </c>
       <c r="D24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D24)</f>
         <v>0.39713482937499994</v>
       </c>
       <c r="E24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E24)</f>
         <v>0.42076447974999998</v>
       </c>
       <c r="F24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F24)</f>
         <v>0.51091898725000007</v>
       </c>
       <c r="G24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G24)</f>
         <v>0.54665465525000012</v>
       </c>
       <c r="H24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H24)</f>
         <v>0.8533259228750002</v>
       </c>
       <c r="I24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I24)</f>
         <v>1.431659451</v>
       </c>
       <c r="J24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J24)</f>
         <v>1.6340430362500002</v>
       </c>
       <c r="K24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K24)</f>
         <v>1.861900544</v>
       </c>
       <c r="L24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L24)</f>
         <v>1.5376233631250003</v>
       </c>
       <c r="M24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M24)</f>
         <v>1.2411690335000003</v>
       </c>
       <c r="N24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N24)</f>
         <v>1.311584865875</v>
       </c>
       <c r="O24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O24)</f>
         <v>1.3973699339999999</v>
       </c>
       <c r="P24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P24)</f>
         <v>1.3558213722500003</v>
       </c>
       <c r="Q24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q24)</f>
         <v>1.3325904633750001</v>
       </c>
       <c r="R24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R24)</f>
         <v>1.31789866275</v>
       </c>
       <c r="S24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S24)</f>
         <v>1.70462357175</v>
       </c>
       <c r="T24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T24)</f>
         <v>1.596641058875</v>
       </c>
       <c r="U24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U24)</f>
         <v>1.6805785441250003</v>
       </c>
       <c r="V24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V24)</f>
         <v>1.5866025507499999</v>
       </c>
       <c r="W24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W24)</f>
         <v>1.481455418625</v>
       </c>
       <c r="X24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X24)</f>
         <v>1.164483637</v>
       </c>
       <c r="Y24" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y24</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y24)</f>
         <v>1.0932654134999999</v>
       </c>
     </row>
@@ -13714,99 +13719,99 @@
         <v>103</v>
       </c>
       <c r="B25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!B25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!B25)</f>
         <v>0.10102848999999986</v>
       </c>
       <c r="C25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!C25</f>
-        <v>-0.11162965299999997</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!C25)</f>
+        <v>0.11162965299999997</v>
       </c>
       <c r="D25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!D25</f>
-        <v>-4.2329311125000046E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!D25)</f>
+        <v>4.2329311125000046E-2</v>
       </c>
       <c r="E25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!E25</f>
-        <v>-0.18525018675000027</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!E25)</f>
+        <v>0.18525018675000027</v>
       </c>
       <c r="F25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!F25</f>
-        <v>-0.13397188162500023</v>
+        <f>ABS(0.05*'Pc, 2020, Winter'!F25)</f>
+        <v>0.13397188162500023</v>
       </c>
       <c r="G25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!G25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!G25)</f>
         <v>2.8768729875000079E-2</v>
       </c>
       <c r="H25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!H25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!H25)</f>
         <v>0.28524024499999995</v>
       </c>
       <c r="I25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!I25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!I25)</f>
         <v>1.0551410911249999</v>
       </c>
       <c r="J25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!J25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!J25)</f>
         <v>1.515595150375</v>
       </c>
       <c r="K25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!K25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!K25)</f>
         <v>1.7074881791250001</v>
       </c>
       <c r="L25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!L25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!L25)</f>
         <v>1.509987735625</v>
       </c>
       <c r="M25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!M25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!M25)</f>
         <v>1.3934443711250002</v>
       </c>
       <c r="N25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!N25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!N25)</f>
         <v>1.3388933417499995</v>
       </c>
       <c r="O25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!O25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!O25)</f>
         <v>1.1729568006250002</v>
       </c>
       <c r="P25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!P25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!P25)</f>
         <v>1.1576843740000002</v>
       </c>
       <c r="Q25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Q25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Q25)</f>
         <v>0.79850266012499993</v>
       </c>
       <c r="R25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!R25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!R25)</f>
         <v>0.7932245256249999</v>
       </c>
       <c r="S25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!S25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!S25)</f>
         <v>1.0762655737500002</v>
       </c>
       <c r="T25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!T25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!T25)</f>
         <v>1.2270874735000001</v>
       </c>
       <c r="U25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!U25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!U25)</f>
         <v>1.1045812362500003</v>
       </c>
       <c r="V25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!V25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!V25)</f>
         <v>0.83125045287499977</v>
       </c>
       <c r="W25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!W25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!W25)</f>
         <v>0.90433268525000021</v>
       </c>
       <c r="X25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!X25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!X25)</f>
         <v>0.41595022699999973</v>
       </c>
       <c r="Y25" s="3">
-        <f>0.05*'Pc, 2020, Winter'!Y25</f>
+        <f>ABS(0.05*'Pc, 2020, Winter'!Y25)</f>
         <v>0.15049355025000041</v>
       </c>
     </row>
@@ -19642,8 +19647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4029CF31-2D3A-457F-BAA5-99D078F9F191}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19730,99 +19735,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B2)</f>
         <v>1.0913907250000002E-2</v>
       </c>
       <c r="C2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C2)</f>
         <v>1.9019876500000001E-2</v>
       </c>
       <c r="D2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D2)</f>
         <v>4.838925375E-2</v>
       </c>
       <c r="E2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E2)</f>
         <v>3.0255284000000007E-2</v>
       </c>
       <c r="F2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F2)</f>
         <v>6.8440689875000002E-2</v>
       </c>
       <c r="G2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G2)</f>
         <v>0.11782054987500001</v>
       </c>
       <c r="H2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H2)</f>
         <v>7.898344462500001E-2</v>
       </c>
       <c r="I2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I2)</f>
         <v>9.2493836250000013E-3</v>
       </c>
       <c r="J2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J2)</f>
         <v>4.4279748500000007E-2</v>
       </c>
       <c r="K2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K2)</f>
         <v>8.6348491249999999E-3</v>
       </c>
       <c r="L2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L2)</f>
         <v>2.0009067625000002E-2</v>
       </c>
       <c r="M2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M2)</f>
         <v>9.2631147125000007E-2</v>
       </c>
       <c r="N2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N2)</f>
         <v>4.2080666875000006E-2</v>
       </c>
       <c r="O2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O2)</f>
         <v>5.8182860499999989E-2</v>
       </c>
       <c r="P2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P2)</f>
         <v>5.3240921249999996E-2</v>
       </c>
       <c r="Q2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q2)</f>
         <v>0.114190173625</v>
       </c>
       <c r="R2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R2)</f>
         <v>4.8715025000000002E-2</v>
       </c>
       <c r="S2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S2)</f>
         <v>3.2136402750000001E-2</v>
       </c>
       <c r="T2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T2)</f>
         <v>7.0611821875000008E-2</v>
       </c>
       <c r="U2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U2)</f>
         <v>0.15141991175000002</v>
       </c>
       <c r="V2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V2)</f>
         <v>0.11105182125000002</v>
       </c>
       <c r="W2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W2</f>
-        <v>-2.2980084750000001E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W2)</f>
+        <v>2.2980084750000001E-2</v>
       </c>
       <c r="X2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X2)</f>
         <v>9.9558356375000004E-2</v>
       </c>
       <c r="Y2" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y2</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y2)</f>
         <v>0.1310518655</v>
       </c>
     </row>
@@ -19831,99 +19836,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B3)</f>
         <v>0.97576816075000006</v>
       </c>
       <c r="C3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C3)</f>
         <v>0.88652904037500013</v>
       </c>
       <c r="D3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D3)</f>
         <v>0.87104368212500016</v>
       </c>
       <c r="E3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E3)</f>
         <v>0.86881854524999991</v>
       </c>
       <c r="F3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F3)</f>
         <v>0.86888704300000019</v>
       </c>
       <c r="G3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G3)</f>
         <v>0.861202859875</v>
       </c>
       <c r="H3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H3)</f>
         <v>0.92974536412499986</v>
       </c>
       <c r="I3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I3)</f>
         <v>1.103834891375</v>
       </c>
       <c r="J3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J3)</f>
         <v>1.2580579042500002</v>
       </c>
       <c r="K3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K3)</f>
         <v>1.2967155695000001</v>
       </c>
       <c r="L3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L3)</f>
         <v>1.2835931538750001</v>
       </c>
       <c r="M3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M3)</f>
         <v>1.3198913812499999</v>
       </c>
       <c r="N3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N3)</f>
         <v>1.3379975079999999</v>
       </c>
       <c r="O3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O3)</f>
         <v>1.3132470607500002</v>
       </c>
       <c r="P3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P3)</f>
         <v>1.2619316577500002</v>
       </c>
       <c r="Q3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q3)</f>
         <v>1.211141085625</v>
       </c>
       <c r="R3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R3)</f>
         <v>1.2322715282500001</v>
       </c>
       <c r="S3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S3)</f>
         <v>1.2444460631250003</v>
       </c>
       <c r="T3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T3)</f>
         <v>1.2497282743750002</v>
       </c>
       <c r="U3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U3)</f>
         <v>1.2290395260000002</v>
       </c>
       <c r="V3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V3)</f>
         <v>1.2327322483750001</v>
       </c>
       <c r="W3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W3)</f>
         <v>1.2837895155000001</v>
       </c>
       <c r="X3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X3)</f>
         <v>1.1966472147500002</v>
       </c>
       <c r="Y3" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y3</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y3)</f>
         <v>1.096959829375</v>
       </c>
     </row>
@@ -19932,99 +19937,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B4)</f>
         <v>1.325048351125</v>
       </c>
       <c r="C4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C4)</f>
         <v>1.2064963342500001</v>
       </c>
       <c r="D4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D4)</f>
         <v>1.1474424365000002</v>
       </c>
       <c r="E4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E4)</f>
         <v>1.106593323</v>
       </c>
       <c r="F4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F4)</f>
         <v>1.106593323</v>
       </c>
       <c r="G4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G4)</f>
         <v>1.186515808</v>
       </c>
       <c r="H4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H4)</f>
         <v>1.4866691587500001</v>
       </c>
       <c r="I4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I4)</f>
         <v>1.829447174</v>
       </c>
       <c r="J4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J4)</f>
         <v>1.9093697547500001</v>
       </c>
       <c r="K4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K4)</f>
         <v>1.8694084167500002</v>
       </c>
       <c r="L4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L4)</f>
         <v>1.8685205460000001</v>
       </c>
       <c r="M4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M4)</f>
         <v>1.991068649</v>
       </c>
       <c r="N4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N4)</f>
         <v>1.991068649</v>
       </c>
       <c r="O4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O4)</f>
         <v>1.991068649</v>
       </c>
       <c r="P4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P4)</f>
         <v>1.891165351625</v>
       </c>
       <c r="Q4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q4)</f>
         <v>1.790373992875</v>
       </c>
       <c r="R4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R4)</f>
         <v>1.6678260805000003</v>
       </c>
       <c r="S4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S4)</f>
         <v>1.6678260805000003</v>
       </c>
       <c r="T4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T4)</f>
         <v>1.6678260805000003</v>
       </c>
       <c r="U4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U4)</f>
         <v>1.6678260805000003</v>
       </c>
       <c r="V4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V4)</f>
         <v>1.6678260805000003</v>
       </c>
       <c r="W4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W4)</f>
         <v>1.6678260805000003</v>
       </c>
       <c r="X4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X4)</f>
         <v>1.6078845025000001</v>
       </c>
       <c r="Y4" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y4</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y4)</f>
         <v>1.5044294357500001</v>
       </c>
     </row>
@@ -20033,99 +20038,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B5)</f>
         <v>1.9465143084999994</v>
       </c>
       <c r="C5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C5)</f>
         <v>1.7135209737499999</v>
       </c>
       <c r="D5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D5)</f>
         <v>1.620317810625</v>
       </c>
       <c r="E5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E5)</f>
         <v>1.5689275623750001</v>
       </c>
       <c r="F5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F5)</f>
         <v>1.6632100760000001</v>
       </c>
       <c r="G5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G5)</f>
         <v>1.5233935535000001</v>
       </c>
       <c r="H5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H5)</f>
         <v>1.7866626800000001</v>
       </c>
       <c r="I5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I5)</f>
         <v>2.0737487915000004</v>
       </c>
       <c r="J5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J5)</f>
         <v>2.3362179996250001</v>
       </c>
       <c r="K5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K5)</f>
         <v>2.5073837755000001</v>
       </c>
       <c r="L5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L5)</f>
         <v>2.5876254795000002</v>
       </c>
       <c r="M5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M5)</f>
         <v>2.6285784482499999</v>
       </c>
       <c r="N5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N5)</f>
         <v>2.6801910161250002</v>
       </c>
       <c r="O5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O5)</f>
         <v>2.7021427631249999</v>
       </c>
       <c r="P5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P5)</f>
         <v>2.7115746974999997</v>
       </c>
       <c r="Q5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q5)</f>
         <v>2.6093504905000002</v>
       </c>
       <c r="R5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R5)</f>
         <v>2.6106565236249999</v>
       </c>
       <c r="S5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S5)</f>
         <v>2.5088740348749976</v>
       </c>
       <c r="T5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T5)</f>
         <v>2.522074639875</v>
       </c>
       <c r="U5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U5)</f>
         <v>2.5428104280000001</v>
       </c>
       <c r="V5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V5)</f>
         <v>2.5219079972499991</v>
       </c>
       <c r="W5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W5)</f>
         <v>2.6123134373750001</v>
       </c>
       <c r="X5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X5)</f>
         <v>2.5522669315000002</v>
       </c>
       <c r="Y5" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y5</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y5)</f>
         <v>2.2810436607500004</v>
       </c>
     </row>
@@ -20134,100 +20139,100 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B6</f>
-        <v>-0.69598354099999993</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B6)</f>
+        <v>0.69598354099999993</v>
       </c>
       <c r="C6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C6</f>
-        <v>-0.5974668502499999</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C6)</f>
+        <v>0.5974668502499999</v>
       </c>
       <c r="D6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D6</f>
-        <v>-0.38734800812500003</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D6)</f>
+        <v>0.38734800812500003</v>
       </c>
       <c r="E6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E6</f>
-        <v>-0.36697345975000006</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E6)</f>
+        <v>0.36697345975000006</v>
       </c>
       <c r="F6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F6</f>
-        <v>-0.35552067787500008</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F6)</f>
+        <v>0.35552067787500008</v>
       </c>
       <c r="G6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G6</f>
-        <v>-0.36299643512500013</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G6)</f>
+        <v>0.36299643512500013</v>
       </c>
       <c r="H6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H6</f>
-        <v>-0.26790468675000007</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H6)</f>
+        <v>0.26790468675000007</v>
       </c>
       <c r="I6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I6</f>
-        <v>-0.13225787875000003</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I6)</f>
+        <v>0.13225787875000003</v>
       </c>
       <c r="J6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J6</f>
-        <v>-3.5289788375000075E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J6)</f>
+        <v>3.5289788375000075E-2</v>
       </c>
       <c r="K6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K6)</f>
         <v>3.8163304500000009E-2</v>
       </c>
       <c r="L6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L6)</f>
         <v>6.3983499999999971E-2</v>
       </c>
       <c r="M6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M6)</f>
         <v>0.11129760749999998</v>
       </c>
       <c r="N6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N6)</f>
         <v>0.17413775937500003</v>
       </c>
       <c r="O6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O6)</f>
         <v>0.18367389450000002</v>
       </c>
       <c r="P6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P6)</f>
         <v>0.15594522962499996</v>
       </c>
       <c r="Q6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q6)</f>
         <v>7.5231170999999986E-2</v>
       </c>
       <c r="R6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R6)</f>
         <v>7.8602439375000055E-2</v>
       </c>
       <c r="S6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S6)</f>
         <v>8.0306846125000053E-2</v>
       </c>
       <c r="T6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T6)</f>
         <v>0.10163593900000008</v>
       </c>
       <c r="U6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U6)</f>
         <v>8.0746233374999976E-2</v>
       </c>
       <c r="V6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V6)</f>
         <v>6.0135888874999925E-2</v>
       </c>
       <c r="W6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W6)</f>
         <v>0.12318061600000006</v>
       </c>
       <c r="X6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X6</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X6)</f>
         <v>0.16268312937500007</v>
       </c>
       <c r="Y6" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y6</f>
-        <v>-4.2562937750000002E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y6)</f>
+        <v>4.2562937750000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -20235,99 +20240,99 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B7)</f>
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C7)</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G7)</f>
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J7)</f>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M7)</f>
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N7)</f>
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P7)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R7)</f>
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S7)</f>
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T7)</f>
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U7)</f>
         <v>0</v>
       </c>
       <c r="V7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V7)</f>
         <v>0</v>
       </c>
       <c r="W7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W7)</f>
         <v>0</v>
       </c>
       <c r="X7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X7)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y7</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y7)</f>
         <v>0</v>
       </c>
     </row>
@@ -20336,99 +20341,99 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B8)</f>
         <v>0.75119400025000005</v>
       </c>
       <c r="C8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C8)</f>
         <v>0.46598005312499996</v>
       </c>
       <c r="D8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D8)</f>
         <v>0.66854257574999998</v>
       </c>
       <c r="E8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E8)</f>
         <v>0.61860504162499996</v>
       </c>
       <c r="F8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F8)</f>
         <v>0.70962066675000013</v>
       </c>
       <c r="G8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G8)</f>
         <v>0.24199609762500002</v>
       </c>
       <c r="H8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H8</f>
-        <v>-0.57385282500000001</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H8)</f>
+        <v>0.57385282500000001</v>
       </c>
       <c r="I8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I8)</f>
         <v>4.1648101749998827E-2</v>
       </c>
       <c r="J8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J8)</f>
         <v>0.32057905187499741</v>
       </c>
       <c r="K8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K8)</f>
         <v>0.78039188400000015</v>
       </c>
       <c r="L8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L8)</f>
         <v>0.75960960387499998</v>
       </c>
       <c r="M8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M8)</f>
         <v>0.42066144950000006</v>
       </c>
       <c r="N8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N8)</f>
         <v>0.34809446337500022</v>
       </c>
       <c r="O8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O8)</f>
         <v>0.42390565862500007</v>
       </c>
       <c r="P8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P8)</f>
         <v>0.37115631112500003</v>
       </c>
       <c r="Q8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q8)</f>
         <v>0.4413562775</v>
       </c>
       <c r="R8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R8)</f>
         <v>0.61559228887500006</v>
       </c>
       <c r="S8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S8)</f>
         <v>0.63753757487500007</v>
       </c>
       <c r="T8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T8)</f>
         <v>0.65870723737500014</v>
       </c>
       <c r="U8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U8)</f>
         <v>0.64563894262500021</v>
       </c>
       <c r="V8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V8)</f>
         <v>0.41402854937499989</v>
       </c>
       <c r="W8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W8)</f>
         <v>0.4685174941250001</v>
       </c>
       <c r="X8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X8)</f>
         <v>0.47450246787500006</v>
       </c>
       <c r="Y8" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y8</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y8)</f>
         <v>0.48190240862499989</v>
       </c>
     </row>
@@ -20437,99 +20442,99 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B9)</f>
         <v>1.091973495625</v>
       </c>
       <c r="C9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C9)</f>
         <v>0.92574110037500013</v>
       </c>
       <c r="D9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D9)</f>
         <v>0.92495870612500009</v>
       </c>
       <c r="E9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E9)</f>
         <v>0.84097232837499991</v>
       </c>
       <c r="F9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F9)</f>
         <v>0.84869003312500002</v>
       </c>
       <c r="G9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G9)</f>
         <v>0.84839859037499998</v>
       </c>
       <c r="H9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H9)</f>
         <v>1.0253851413749999</v>
       </c>
       <c r="I9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I9)</f>
         <v>1.40206089025</v>
       </c>
       <c r="J9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J9)</f>
         <v>1.642883396125</v>
       </c>
       <c r="K9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K9)</f>
         <v>1.6764263153750001</v>
       </c>
       <c r="L9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L9)</f>
         <v>1.6745662212499999</v>
       </c>
       <c r="M9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M9)</f>
         <v>1.751973676625</v>
       </c>
       <c r="N9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N9)</f>
         <v>1.6811676977500001</v>
       </c>
       <c r="O9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O9)</f>
         <v>1.6490996361249999</v>
       </c>
       <c r="P9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P9)</f>
         <v>1.3826992988750002</v>
       </c>
       <c r="Q9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q9)</f>
         <v>1.42950511</v>
       </c>
       <c r="R9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R9)</f>
         <v>1.6607449053750001</v>
       </c>
       <c r="S9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S9)</f>
         <v>1.7700902462500001</v>
       </c>
       <c r="T9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T9)</f>
         <v>1.3945107461250001</v>
       </c>
       <c r="U9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U9)</f>
         <v>1.467144584625</v>
       </c>
       <c r="V9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V9)</f>
         <v>1.3546849250000002</v>
       </c>
       <c r="W9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W9)</f>
         <v>1.4365901947499999</v>
       </c>
       <c r="X9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X9)</f>
         <v>1.2975844859999999</v>
       </c>
       <c r="Y9" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y9</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y9)</f>
         <v>1.1619999885000001</v>
       </c>
     </row>
@@ -20538,99 +20543,99 @@
         <v>12</v>
       </c>
       <c r="B10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B10)</f>
         <v>5.8736927442500004</v>
       </c>
       <c r="C10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C10)</f>
         <v>5.2425624688750005</v>
       </c>
       <c r="D10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D10)</f>
         <v>4.9020755931249997</v>
       </c>
       <c r="E10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E10)</f>
         <v>4.7564020756250001</v>
       </c>
       <c r="F10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F10)</f>
         <v>7.94709481675</v>
       </c>
       <c r="G10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G10)</f>
         <v>7.6152717988749998</v>
       </c>
       <c r="H10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H10)</f>
         <v>5.2743206836249996</v>
       </c>
       <c r="I10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I10)</f>
         <v>6.8407460785000005</v>
       </c>
       <c r="J10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J10)</f>
         <v>7.5717612726250003</v>
       </c>
       <c r="K10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K10)</f>
         <v>8.1071236440000014</v>
       </c>
       <c r="L10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L10)</f>
         <v>8.1024301238750009</v>
       </c>
       <c r="M10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M10)</f>
         <v>8.9361398826250014</v>
       </c>
       <c r="N10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N10)</f>
         <v>9.236212278</v>
       </c>
       <c r="O10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O10)</f>
         <v>9.1128616273750005</v>
       </c>
       <c r="P10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P10)</f>
         <v>9.712224970374999</v>
       </c>
       <c r="Q10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q10)</f>
         <v>8.9846001127499999</v>
       </c>
       <c r="R10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R10)</f>
         <v>8.5672517723750001</v>
       </c>
       <c r="S10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S10)</f>
         <v>8.4683900110000003</v>
       </c>
       <c r="T10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T10)</f>
         <v>8.1586502975000013</v>
       </c>
       <c r="U10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U10)</f>
         <v>8.2776284391250012</v>
       </c>
       <c r="V10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V10)</f>
         <v>8.104823054125001</v>
       </c>
       <c r="W10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W10)</f>
         <v>8.7475800207500019</v>
       </c>
       <c r="X10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X10)</f>
         <v>8.0764756553750008</v>
       </c>
       <c r="Y10" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y10</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y10)</f>
         <v>6.6748071407500014</v>
       </c>
     </row>
@@ -20639,99 +20644,99 @@
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B11)</f>
         <v>0.17101755125000001</v>
       </c>
       <c r="C11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C11)</f>
         <v>0.160268068125</v>
       </c>
       <c r="D11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D11)</f>
         <v>0.14513111100000001</v>
       </c>
       <c r="E11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E11)</f>
         <v>0.148909282625</v>
       </c>
       <c r="F11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F11)</f>
         <v>0.148835945</v>
       </c>
       <c r="G11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G11)</f>
         <v>0.15517358775000001</v>
       </c>
       <c r="H11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H11)</f>
         <v>0.17759890549999999</v>
       </c>
       <c r="I11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I11)</f>
         <v>0.2189395905</v>
       </c>
       <c r="J11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J11)</f>
         <v>0.24175491350000003</v>
       </c>
       <c r="K11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K11)</f>
         <v>0.25433273299999998</v>
       </c>
       <c r="L11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L11)</f>
         <v>0.25618524550000005</v>
       </c>
       <c r="M11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M11)</f>
         <v>0.25872020700000004</v>
       </c>
       <c r="N11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N11)</f>
         <v>0.26910414700000002</v>
       </c>
       <c r="O11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O11)</f>
         <v>0.26437525750000002</v>
       </c>
       <c r="P11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P11)</f>
         <v>0.25206570625000002</v>
       </c>
       <c r="Q11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q11)</f>
         <v>0.24992060662499999</v>
       </c>
       <c r="R11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R11)</f>
         <v>0.23573408137500002</v>
       </c>
       <c r="S11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S11)</f>
         <v>0.23692855837500001</v>
       </c>
       <c r="T11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T11)</f>
         <v>0.23346729300000002</v>
       </c>
       <c r="U11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U11)</f>
         <v>0.2447774885</v>
       </c>
       <c r="V11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V11)</f>
         <v>0.2447774885</v>
       </c>
       <c r="W11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W11)</f>
         <v>0.25301637637500002</v>
       </c>
       <c r="X11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X11)</f>
         <v>0.22778792387499999</v>
       </c>
       <c r="Y11" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y11</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y11)</f>
         <v>0.19653859150000003</v>
       </c>
     </row>
@@ -20740,99 +20745,99 @@
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B12)</f>
         <v>1.0182</v>
       </c>
       <c r="C12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C12)</f>
         <v>1.0357499999999999</v>
       </c>
       <c r="D12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D12)</f>
         <v>0.96609999999999996</v>
       </c>
       <c r="E12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E12)</f>
         <v>1.0244</v>
       </c>
       <c r="F12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F12)</f>
         <v>1.0122500000000001</v>
       </c>
       <c r="G12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G12)</f>
         <v>1.0685</v>
       </c>
       <c r="H12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H12)</f>
         <v>1.4286500000000002</v>
       </c>
       <c r="I12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I12)</f>
         <v>1.6041000000000001</v>
       </c>
       <c r="J12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J12)</f>
         <v>1.65445</v>
       </c>
       <c r="K12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K12)</f>
         <v>1.6736500000000001</v>
       </c>
       <c r="L12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L12)</f>
         <v>1.6879999999999999</v>
       </c>
       <c r="M12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M12)</f>
         <v>1.7293000000000001</v>
       </c>
       <c r="N12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N12)</f>
         <v>1.6782999999999999</v>
       </c>
       <c r="O12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O12)</f>
         <v>1.6383000000000003</v>
       </c>
       <c r="P12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P12)</f>
         <v>1.51715</v>
       </c>
       <c r="Q12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q12)</f>
         <v>1.4539500000000001</v>
       </c>
       <c r="R12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R12)</f>
         <v>1.4748000000000001</v>
       </c>
       <c r="S12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S12)</f>
         <v>1.4473500000000001</v>
       </c>
       <c r="T12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T12)</f>
         <v>1.46715</v>
       </c>
       <c r="U12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U12)</f>
         <v>1.5006000000000002</v>
       </c>
       <c r="V12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V12)</f>
         <v>1.4459000000000002</v>
       </c>
       <c r="W12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W12)</f>
         <v>1.5094000000000001</v>
       </c>
       <c r="X12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X12)</f>
         <v>1.40445</v>
       </c>
       <c r="Y12" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y12</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y12)</f>
         <v>1.1718999999999999</v>
       </c>
     </row>
@@ -20841,99 +20846,99 @@
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B13)</f>
         <v>0.30453867450000005</v>
       </c>
       <c r="C13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C13)</f>
         <v>0.31635036475</v>
       </c>
       <c r="D13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D13)</f>
         <v>0.25509882275000001</v>
       </c>
       <c r="E13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E13)</f>
         <v>0.27677405925000004</v>
       </c>
       <c r="F13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F13)</f>
         <v>0.28034148525000002</v>
       </c>
       <c r="G13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G13)</f>
         <v>0.26011278337499999</v>
       </c>
       <c r="H13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H13)</f>
         <v>0.30259017799999999</v>
       </c>
       <c r="I13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I13)</f>
         <v>0.34604520800000005</v>
       </c>
       <c r="J13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J13)</f>
         <v>0.35371844175</v>
       </c>
       <c r="K13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K13)</f>
         <v>0.37891545300000001</v>
       </c>
       <c r="L13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L13)</f>
         <v>0.35606898649999996</v>
       </c>
       <c r="M13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M13)</f>
         <v>0.36908832487500004</v>
       </c>
       <c r="N13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N13)</f>
         <v>0.39667392675000002</v>
       </c>
       <c r="O13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O13)</f>
         <v>0.36831025487500002</v>
       </c>
       <c r="P13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P13)</f>
         <v>0.33666238787499997</v>
       </c>
       <c r="Q13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q13)</f>
         <v>0.36877900950000009</v>
       </c>
       <c r="R13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R13)</f>
         <v>0.33522557024999999</v>
       </c>
       <c r="S13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S13)</f>
         <v>0.36896926775</v>
       </c>
       <c r="T13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T13)</f>
         <v>0.36840311875000009</v>
       </c>
       <c r="U13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U13)</f>
         <v>0.38219767500000001</v>
       </c>
       <c r="V13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V13)</f>
         <v>0.4052738815000001</v>
       </c>
       <c r="W13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W13)</f>
         <v>0.42000686812500004</v>
       </c>
       <c r="X13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X13)</f>
         <v>0.37571450474999996</v>
       </c>
       <c r="Y13" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y13</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y13)</f>
         <v>0.33272170112499999</v>
       </c>
     </row>
@@ -20942,99 +20947,99 @@
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B14</f>
-        <v>-9.1500000000000001E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B14)</f>
+        <v>9.1500000000000001E-3</v>
       </c>
       <c r="C14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C14</f>
-        <v>-1.2999999999999999E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C14)</f>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D14)</f>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="E14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E14)</f>
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="F14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F14)</f>
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="G14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G14)</f>
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="H14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H14)</f>
         <v>7.1500000000000001E-3</v>
       </c>
       <c r="I14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I14)</f>
         <v>1.7649999999999999E-2</v>
       </c>
       <c r="J14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J14)</f>
         <v>5.1500000000000001E-3</v>
       </c>
       <c r="K14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K14)</f>
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="L14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L14)</f>
         <v>1.6700000000000003E-2</v>
       </c>
       <c r="M14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M14)</f>
         <v>3.6499999999999998E-2</v>
       </c>
       <c r="N14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N14)</f>
         <v>1.9750000000000004E-2</v>
       </c>
       <c r="O14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O14)</f>
         <v>5.3600000000000009E-2</v>
       </c>
       <c r="P14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P14)</f>
         <v>6.4500000000000009E-3</v>
       </c>
       <c r="Q14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q14)</f>
         <v>2.4150000000000001E-2</v>
       </c>
       <c r="R14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R14)</f>
         <v>2.6700000000000002E-2</v>
       </c>
       <c r="S14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S14</f>
-        <v>-2.5900000000000003E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S14)</f>
+        <v>2.5900000000000003E-2</v>
       </c>
       <c r="T14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T14)</f>
         <v>1.3450000000000002E-2</v>
       </c>
       <c r="U14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U14</f>
-        <v>-5.0000000000000002E-5</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U14)</f>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="V14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V14)</f>
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="W14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W14)</f>
         <v>5.3650000000000003E-2</v>
       </c>
       <c r="X14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X14)</f>
         <v>8.6499999999999997E-3</v>
       </c>
       <c r="Y14" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y14</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y14)</f>
         <v>2.2350000000000002E-2</v>
       </c>
     </row>
@@ -21043,99 +21048,99 @@
         <v>20</v>
       </c>
       <c r="B15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B15)</f>
         <v>0.24203896525000002</v>
       </c>
       <c r="C15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C15)</f>
         <v>0.2392951965</v>
       </c>
       <c r="D15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D15)</f>
         <v>0.2392951965</v>
       </c>
       <c r="E15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E15)</f>
         <v>0.2392951965</v>
       </c>
       <c r="F15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F15)</f>
         <v>0.24560594550000003</v>
       </c>
       <c r="G15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G15)</f>
         <v>0.24807524675000003</v>
       </c>
       <c r="H15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H15)</f>
         <v>0.21789345750000005</v>
       </c>
       <c r="I15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I15)</f>
         <v>0.156706285625</v>
       </c>
       <c r="J15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J15)</f>
         <v>0.16301689150000001</v>
       </c>
       <c r="K15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K15)</f>
         <v>0.17728481287500003</v>
       </c>
       <c r="L15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L15)</f>
         <v>0.17015085225000001</v>
       </c>
       <c r="M15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M15)</f>
         <v>0.22447843550000002</v>
       </c>
       <c r="N15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N15)</f>
         <v>0.2700256345</v>
       </c>
       <c r="O15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O15)</f>
         <v>0.25850172025000001</v>
       </c>
       <c r="P15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P15)</f>
         <v>0.24094133375000004</v>
       </c>
       <c r="Q15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q15)</f>
         <v>0.2458803175</v>
       </c>
       <c r="R15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R15)</f>
         <v>0.26892814650000002</v>
       </c>
       <c r="S15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S15)</f>
         <v>0.24368515000000002</v>
       </c>
       <c r="T15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T15)</f>
         <v>0.24094133362499998</v>
       </c>
       <c r="U15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U15)</f>
         <v>0.24368515000000002</v>
       </c>
       <c r="V15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V15)</f>
         <v>0.24505710587500001</v>
       </c>
       <c r="W15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W15)</f>
         <v>0.25685558300000005</v>
       </c>
       <c r="X15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X15)</f>
         <v>0.220637226125</v>
       </c>
       <c r="Y15" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y15</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y15)</f>
         <v>0.20966186549999999</v>
       </c>
     </row>
@@ -21144,99 +21149,99 @@
         <v>21</v>
       </c>
       <c r="B16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B16)</f>
         <v>0.31008543975000002</v>
       </c>
       <c r="C16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C16)</f>
         <v>0.28813505162499997</v>
       </c>
       <c r="D16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D16)</f>
         <v>0.26069679262500001</v>
       </c>
       <c r="E16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E16)</f>
         <v>0.25795302387500002</v>
       </c>
       <c r="F16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F16)</f>
         <v>0.25520925512500003</v>
       </c>
       <c r="G16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G16)</f>
         <v>0.24972162237499998</v>
       </c>
       <c r="H16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H16)</f>
         <v>0.33340787887500001</v>
       </c>
       <c r="I16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I16)</f>
         <v>0.44123992925</v>
       </c>
       <c r="J16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J16)</f>
         <v>0.49529314037500005</v>
       </c>
       <c r="K16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K16)</f>
         <v>0.47773270612500007</v>
       </c>
       <c r="L16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L16)</f>
         <v>0.48459224712499999</v>
       </c>
       <c r="M16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M16)</f>
         <v>0.50325031274999998</v>
       </c>
       <c r="N16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N16)</f>
         <v>0.5109329223750001</v>
       </c>
       <c r="O16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O16)</f>
         <v>0.49693951600000008</v>
       </c>
       <c r="P16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P16)</f>
         <v>0.44727640150000003</v>
       </c>
       <c r="Q16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q16)</f>
         <v>0.43575229650000002</v>
       </c>
       <c r="R16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R16)</f>
         <v>0.43218536375000005</v>
       </c>
       <c r="S16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S16)</f>
         <v>0.42367954250000006</v>
       </c>
       <c r="T16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T16)</f>
         <v>0.41462502462500006</v>
       </c>
       <c r="U16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U16)</f>
         <v>0.44069113724999998</v>
       </c>
       <c r="V16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V16)</f>
         <v>0.45441036199999996</v>
       </c>
       <c r="W16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W16)</f>
         <v>0.48184852587500004</v>
       </c>
       <c r="X16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X16)</f>
         <v>0.43657546037500006</v>
       </c>
       <c r="Y16" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y16</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y16)</f>
         <v>0.36715693462500004</v>
       </c>
     </row>
@@ -21245,99 +21250,99 @@
         <v>26</v>
       </c>
       <c r="B17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B17)</f>
         <v>0.97687411312500005</v>
       </c>
       <c r="C17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C17)</f>
         <v>0.8850588800000001</v>
       </c>
       <c r="D17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D17)</f>
         <v>0.81553916912500002</v>
       </c>
       <c r="E17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E17)</f>
         <v>0.80996532425000012</v>
       </c>
       <c r="F17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F17)</f>
         <v>0.80996532425000012</v>
       </c>
       <c r="G17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G17)</f>
         <v>0.804391479375</v>
       </c>
       <c r="H17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H17)</f>
         <v>0.92896080000000003</v>
       </c>
       <c r="I17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I17)</f>
         <v>1.0657290936250001</v>
       </c>
       <c r="J17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J17)</f>
         <v>1.156258011</v>
       </c>
       <c r="K17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K17)</f>
         <v>1.1974187373749998</v>
       </c>
       <c r="L17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L17)</f>
         <v>1.2577508447500003</v>
       </c>
       <c r="M17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M17)</f>
         <v>1.3060165402500001</v>
       </c>
       <c r="N17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N17)</f>
         <v>1.32831192</v>
       </c>
       <c r="O17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O17)</f>
         <v>1.3411746497500001</v>
       </c>
       <c r="P17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P17)</f>
         <v>1.3270256517499999</v>
       </c>
       <c r="Q17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q17)</f>
         <v>1.3150203705000001</v>
       </c>
       <c r="R17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R17)</f>
         <v>1.2269615176250002</v>
       </c>
       <c r="S17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S17)</f>
         <v>1.1995210647500001</v>
       </c>
       <c r="T17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T17)</f>
         <v>1.1883733750000001</v>
       </c>
       <c r="U17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U17)</f>
         <v>1.18279957775</v>
       </c>
       <c r="V17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V17)</f>
         <v>1.1840858937500001</v>
       </c>
       <c r="W17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W17)</f>
         <v>1.2291053295000003</v>
       </c>
       <c r="X17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X17)</f>
         <v>1.233392858625</v>
       </c>
       <c r="Y17" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y17</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y17)</f>
         <v>1.0971807958750002</v>
       </c>
     </row>
@@ -21346,99 +21351,99 @@
         <v>30</v>
       </c>
       <c r="B18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B18)</f>
         <v>0.54495462187499999</v>
       </c>
       <c r="C18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C18)</f>
         <v>0.51708288187499996</v>
       </c>
       <c r="D18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D18)</f>
         <v>0.50675662762500007</v>
       </c>
       <c r="E18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E18)</f>
         <v>0.5080192805</v>
       </c>
       <c r="F18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F18)</f>
         <v>0.51000521175000002</v>
       </c>
       <c r="G18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G18)</f>
         <v>0.52785599225000002</v>
       </c>
       <c r="H18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H18)</f>
         <v>0.66211194975000009</v>
       </c>
       <c r="I18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I18)</f>
         <v>0.77174359562500006</v>
       </c>
       <c r="J18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J18)</f>
         <v>0.76478391887500008</v>
       </c>
       <c r="K18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K18)</f>
         <v>0.78930556775000005</v>
       </c>
       <c r="L18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L18)</f>
         <v>0.79666749225000011</v>
       </c>
       <c r="M18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M18)</f>
         <v>0.82146711337500011</v>
       </c>
       <c r="N18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N18)</f>
         <v>0.83356251712500018</v>
       </c>
       <c r="O18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O18)</f>
         <v>0.81036548612500003</v>
       </c>
       <c r="P18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P18)</f>
         <v>0.73362853537500006</v>
       </c>
       <c r="Q18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q18)</f>
         <v>0.72074446675000003</v>
       </c>
       <c r="R18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R18)</f>
         <v>0.73043988937499993</v>
       </c>
       <c r="S18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S18)</f>
         <v>0.74336347587500018</v>
       </c>
       <c r="T18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T18)</f>
         <v>0.737471950125</v>
       </c>
       <c r="U18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U18)</f>
         <v>0.75137137175000002</v>
       </c>
       <c r="V18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V18)</f>
         <v>0.79002082350000014</v>
       </c>
       <c r="W18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W18)</f>
         <v>0.77925423387500004</v>
       </c>
       <c r="X18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X18)</f>
         <v>0.67881827350000012</v>
       </c>
       <c r="Y18" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y18</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y18)</f>
         <v>0.62006114725000006</v>
       </c>
     </row>
@@ -21447,99 +21452,99 @@
         <v>35</v>
       </c>
       <c r="B19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B19)</f>
         <v>0.51790000000000003</v>
       </c>
       <c r="C19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C19)</f>
         <v>0.46929999999999999</v>
       </c>
       <c r="D19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D19)</f>
         <v>0.41570000000000001</v>
       </c>
       <c r="E19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E19)</f>
         <v>0.42425000000000002</v>
       </c>
       <c r="F19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F19)</f>
         <v>0.45715000000000006</v>
       </c>
       <c r="G19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G19)</f>
         <v>0.46929999999999999</v>
       </c>
       <c r="H19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H19)</f>
         <v>0.6533500000000001</v>
       </c>
       <c r="I19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I19)</f>
         <v>0.76150000000000007</v>
       </c>
       <c r="J19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J19)</f>
         <v>0.73594999999999999</v>
       </c>
       <c r="K19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K19)</f>
         <v>0.73715000000000008</v>
       </c>
       <c r="L19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L19)</f>
         <v>0.67375000000000007</v>
       </c>
       <c r="M19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M19)</f>
         <v>0.76955000000000007</v>
       </c>
       <c r="N19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N19)</f>
         <v>0.77629999999999999</v>
       </c>
       <c r="O19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O19)</f>
         <v>0.7359</v>
       </c>
       <c r="P19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P19)</f>
         <v>0.66365000000000007</v>
       </c>
       <c r="Q19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q19)</f>
         <v>0.63090000000000002</v>
       </c>
       <c r="R19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R19)</f>
         <v>0.63324999999999998</v>
       </c>
       <c r="S19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S19)</f>
         <v>0.63070000000000004</v>
       </c>
       <c r="T19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T19)</f>
         <v>0.67810000000000004</v>
       </c>
       <c r="U19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U19)</f>
         <v>0.71810000000000007</v>
       </c>
       <c r="V19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V19)</f>
         <v>0.71970000000000001</v>
       </c>
       <c r="W19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W19)</f>
         <v>0.6886000000000001</v>
       </c>
       <c r="X19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X19)</f>
         <v>0.61650000000000005</v>
       </c>
       <c r="Y19" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y19</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y19)</f>
         <v>0.57455000000000001</v>
       </c>
     </row>
@@ -21548,99 +21553,99 @@
         <v>36</v>
       </c>
       <c r="B20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B20)</f>
         <v>7.8500000000000011E-3</v>
       </c>
       <c r="C20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C20</f>
-        <v>-1.545E-2</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C20)</f>
+        <v>1.545E-2</v>
       </c>
       <c r="D20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D20)</f>
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="E20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E20)</f>
         <v>2.4800000000000003E-2</v>
       </c>
       <c r="F20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F20)</f>
         <v>5.2749999999999998E-2</v>
       </c>
       <c r="G20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G20)</f>
         <v>2.2900000000000004E-2</v>
       </c>
       <c r="H20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H20)</f>
         <v>4.7750000000000001E-2</v>
       </c>
       <c r="I20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I20)</f>
         <v>2.9049999999999999E-2</v>
       </c>
       <c r="J20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J20)</f>
         <v>3.4500000000000004E-3</v>
       </c>
       <c r="K20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K20</f>
-        <v>-7.4000000000000003E-3</v>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K20)</f>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="L20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L20)</f>
         <v>1.3950000000000002E-2</v>
       </c>
       <c r="M20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M20)</f>
         <v>7.000000000000001E-4</v>
       </c>
       <c r="N20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N20)</f>
         <v>2.1500000000000002E-2</v>
       </c>
       <c r="O20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O20)</f>
         <v>1.8249999999999999E-2</v>
       </c>
       <c r="P20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P20)</f>
         <v>1.0500000000000002E-3</v>
       </c>
       <c r="Q20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q20)</f>
         <v>6.6300000000000012E-2</v>
       </c>
       <c r="R20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R20)</f>
         <v>3.5549999999999998E-2</v>
       </c>
       <c r="S20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S20)</f>
         <v>2.5400000000000002E-2</v>
       </c>
       <c r="T20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T20)</f>
         <v>5.9050000000000005E-2</v>
       </c>
       <c r="U20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U20)</f>
         <v>3.1100000000000003E-2</v>
       </c>
       <c r="V20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V20)</f>
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="W20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W20)</f>
         <v>4.3250000000000004E-2</v>
       </c>
       <c r="X20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X20)</f>
         <v>3.7150000000000002E-2</v>
       </c>
       <c r="Y20" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y20</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y20)</f>
         <v>4.6500000000000005E-3</v>
       </c>
     </row>
@@ -21649,99 +21654,99 @@
         <v>42</v>
       </c>
       <c r="B21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B21)</f>
         <v>0.96150338637499999</v>
       </c>
       <c r="C21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C21)</f>
         <v>0.90158469675000008</v>
       </c>
       <c r="D21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D21)</f>
         <v>0.86206903462500017</v>
       </c>
       <c r="E21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E21)</f>
         <v>0.83229243750000004</v>
       </c>
       <c r="F21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F21)</f>
         <v>0.86015160087500009</v>
       </c>
       <c r="G21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G21)</f>
         <v>0.85703723437500001</v>
       </c>
       <c r="H21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H21)</f>
         <v>0.98983230599999994</v>
       </c>
       <c r="I21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I21)</f>
         <v>1.0814909696250001</v>
       </c>
       <c r="J21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J21)</f>
         <v>1.15407416825</v>
       </c>
       <c r="K21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K21)</f>
         <v>1.1698960542500001</v>
       </c>
       <c r="L21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L21)</f>
         <v>1.1596305847500001</v>
       </c>
       <c r="M21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M21)</f>
         <v>1.233415556</v>
       </c>
       <c r="N21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N21)</f>
         <v>1.2324688197500002</v>
       </c>
       <c r="O21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O21)</f>
         <v>1.2113416433750002</v>
       </c>
       <c r="P21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P21)</f>
         <v>1.1637100218750001</v>
       </c>
       <c r="Q21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q21)</f>
         <v>1.1251869917500001</v>
       </c>
       <c r="R21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R21)</f>
         <v>1.1063034296249998</v>
       </c>
       <c r="S21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S21)</f>
         <v>1.1131556749999998</v>
       </c>
       <c r="T21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T21)</f>
         <v>1.08453667175</v>
       </c>
       <c r="U21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U21)</f>
         <v>1.0910087823750001</v>
       </c>
       <c r="V21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V21)</f>
         <v>1.1337601423750001</v>
       </c>
       <c r="W21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W21)</f>
         <v>1.222000837375</v>
       </c>
       <c r="X21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X21)</f>
         <v>1.15366265775</v>
       </c>
       <c r="Y21" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y21</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y21)</f>
         <v>1.0176397086250002</v>
       </c>
     </row>
@@ -21750,99 +21755,99 @@
         <v>55</v>
       </c>
       <c r="B22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B22)</f>
         <v>0.15575000000000003</v>
       </c>
       <c r="C22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C22)</f>
         <v>0.17215000000000003</v>
       </c>
       <c r="D22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D22)</f>
         <v>9.4150000000000011E-2</v>
       </c>
       <c r="E22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E22)</f>
         <v>9.9150000000000016E-2</v>
       </c>
       <c r="F22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F22)</f>
         <v>0.10600000000000001</v>
       </c>
       <c r="G22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G22)</f>
         <v>0.10825000000000001</v>
       </c>
       <c r="H22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H22)</f>
         <v>0.2404</v>
       </c>
       <c r="I22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I22)</f>
         <v>0.31970000000000004</v>
       </c>
       <c r="J22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J22)</f>
         <v>0.36875000000000002</v>
       </c>
       <c r="K22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K22)</f>
         <v>0.35970000000000002</v>
       </c>
       <c r="L22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L22)</f>
         <v>0.35200000000000004</v>
       </c>
       <c r="M22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M22)</f>
         <v>0.35720000000000002</v>
       </c>
       <c r="N22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N22)</f>
         <v>0.36980000000000002</v>
       </c>
       <c r="O22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O22)</f>
         <v>0.35485000000000005</v>
       </c>
       <c r="P22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P22)</f>
         <v>0.31735000000000002</v>
       </c>
       <c r="Q22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q22)</f>
         <v>0.27715000000000001</v>
       </c>
       <c r="R22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R22)</f>
         <v>0.27835000000000004</v>
       </c>
       <c r="S22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S22)</f>
         <v>0.25059999999999999</v>
       </c>
       <c r="T22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T22)</f>
         <v>0.26350000000000001</v>
       </c>
       <c r="U22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U22)</f>
         <v>0.31440000000000001</v>
       </c>
       <c r="V22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V22)</f>
         <v>0.33865000000000001</v>
       </c>
       <c r="W22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W22)</f>
         <v>0.38355000000000006</v>
       </c>
       <c r="X22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X22)</f>
         <v>0.29735</v>
       </c>
       <c r="Y22" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y22</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y22)</f>
         <v>0.22525000000000001</v>
       </c>
     </row>
@@ -21851,99 +21856,99 @@
         <v>68</v>
       </c>
       <c r="B23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B23)</f>
         <v>0.1055238725</v>
       </c>
       <c r="C23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C23)</f>
         <v>0.1055238725</v>
       </c>
       <c r="D23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D23)</f>
         <v>6.5334320000000001E-2</v>
       </c>
       <c r="E23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E23)</f>
         <v>6.5334320000000001E-2</v>
       </c>
       <c r="F23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F23)</f>
         <v>6.5334320000000001E-2</v>
       </c>
       <c r="G23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G23)</f>
         <v>6.5334320000000001E-2</v>
       </c>
       <c r="H23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H23)</f>
         <v>8.6266422250000002E-2</v>
       </c>
       <c r="I23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="J23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="K23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="L23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="M23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="N23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="O23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="P23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="Q23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="R23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="S23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S23)</f>
         <v>0.1071985245</v>
       </c>
       <c r="T23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T23)</f>
         <v>0.11724591262500002</v>
       </c>
       <c r="U23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U23)</f>
         <v>0.14738807700000001</v>
       </c>
       <c r="V23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V23)</f>
         <v>0.14738807700000001</v>
       </c>
       <c r="W23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W23)</f>
         <v>0.14738807700000001</v>
       </c>
       <c r="X23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X23)</f>
         <v>0.13692202587499999</v>
       </c>
       <c r="Y23" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y23</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y23)</f>
         <v>0.1055238725</v>
       </c>
     </row>
@@ -21952,99 +21957,99 @@
         <v>72</v>
       </c>
       <c r="B24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B24)</f>
         <v>4.5504644401250003</v>
       </c>
       <c r="C24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C24)</f>
         <v>4.3283790727499998</v>
       </c>
       <c r="D24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D24)</f>
         <v>3.5631606429999998</v>
       </c>
       <c r="E24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E24)</f>
         <v>3.7891783863750002</v>
       </c>
       <c r="F24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F24)</f>
         <v>3.5636246437499999</v>
       </c>
       <c r="G24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G24)</f>
         <v>4.0064792443749999</v>
       </c>
       <c r="H24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H24)</f>
         <v>3.291994618875</v>
       </c>
       <c r="I24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I24)</f>
         <v>2.1770945166250004</v>
       </c>
       <c r="J24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J24)</f>
         <v>2.6358636043749999</v>
       </c>
       <c r="K24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K24)</f>
         <v>2.4822456802500006</v>
       </c>
       <c r="L24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L24)</f>
         <v>2.9338450143750006</v>
       </c>
       <c r="M24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M24)</f>
         <v>3.2228592694999998</v>
       </c>
       <c r="N24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N24)</f>
         <v>3.8207148427500011</v>
       </c>
       <c r="O24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O24)</f>
         <v>4.125316620125</v>
       </c>
       <c r="P24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P24)</f>
         <v>4.2849796963750002</v>
       </c>
       <c r="Q24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q24)</f>
         <v>4.0450607097499995</v>
       </c>
       <c r="R24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R24)</f>
         <v>4.0909088248750001</v>
       </c>
       <c r="S24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S24)</f>
         <v>3.6764984506249996</v>
       </c>
       <c r="T24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T24)</f>
         <v>3.0234268688750001</v>
       </c>
       <c r="U24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U24)</f>
         <v>3.0160135528750001</v>
       </c>
       <c r="V24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V24)</f>
         <v>3.8777065206250003</v>
       </c>
       <c r="W24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W24)</f>
         <v>4.1138636215000002</v>
       </c>
       <c r="X24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X24)</f>
         <v>4.4993706194999996</v>
       </c>
       <c r="Y24" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y24</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y24)</f>
         <v>3.9125109606250001</v>
       </c>
     </row>
@@ -22053,99 +22058,99 @@
         <v>103</v>
       </c>
       <c r="B25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!B25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!B25)</f>
         <v>2.1183160066250002</v>
       </c>
       <c r="C25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!C25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!C25)</f>
         <v>1.8281927110000007</v>
       </c>
       <c r="D25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!D25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!D25)</f>
         <v>1.8004857781250001</v>
       </c>
       <c r="E25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!E25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!E25)</f>
         <v>1.6569464921249999</v>
       </c>
       <c r="F25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!F25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!F25)</f>
         <v>1.6046144723750002</v>
       </c>
       <c r="G25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!G25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!G25)</f>
         <v>1.5647714620000004</v>
       </c>
       <c r="H25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!H25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!H25)</f>
         <v>1.8818525075000001</v>
       </c>
       <c r="I25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!I25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!I25)</f>
         <v>2.1667778493750003</v>
       </c>
       <c r="J25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!J25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!J25)</f>
         <v>2.4877465727499999</v>
       </c>
       <c r="K25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!K25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!K25)</f>
         <v>3.2106721876250002</v>
       </c>
       <c r="L25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!L25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!L25)</f>
         <v>3.3108161923749999</v>
       </c>
       <c r="M25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!M25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!M25)</f>
         <v>3.4777623417500005</v>
       </c>
       <c r="N25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!N25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!N25)</f>
         <v>3.6246839282500001</v>
       </c>
       <c r="O25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!O25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!O25)</f>
         <v>3.7190600872499999</v>
       </c>
       <c r="P25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!P25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!P25)</f>
         <v>3.3163827423749996</v>
       </c>
       <c r="Q25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Q25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Q25)</f>
         <v>3.0100162268750004</v>
       </c>
       <c r="R25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!R25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!R25)</f>
         <v>2.7749293563750004</v>
       </c>
       <c r="S25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!S25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!S25)</f>
         <v>2.6763176682500003</v>
       </c>
       <c r="T25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!T25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!T25)</f>
         <v>2.2599462032500006</v>
       </c>
       <c r="U25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!U25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!U25)</f>
         <v>2.1601384640000001</v>
       </c>
       <c r="V25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!V25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!V25)</f>
         <v>2.0029140235000003</v>
       </c>
       <c r="W25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!W25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!W25)</f>
         <v>2.1431346177499999</v>
       </c>
       <c r="X25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!X25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!X25)</f>
         <v>2.0281019925000003</v>
       </c>
       <c r="Y25" s="3">
-        <f>0.05*'Pc, 2020, Summer'!Y25</f>
+        <f>ABS(0.05*'Pc, 2020, Summer'!Y25)</f>
         <v>1.759882569125</v>
       </c>
     </row>
